--- a/database/industries/khodro/khodro/product/monthly_seprated.xlsx
+++ b/database/industries/khodro/khodro/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khodro\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D7FDE1-5383-4ABE-A10D-C29E23FE6E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA61A752-E4C8-4684-BEB1-CAD740AF93BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4625" uniqueCount="103">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -811,12 +811,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -871,7 +871,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -928,7 +928,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -985,7 +985,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1040,7 +1040,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1154,7 +1154,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1209,7 +1209,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1421,7 +1421,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1567,11 +1567,11 @@
       <c r="AE11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>0</v>
+      <c r="AF11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH11" s="11" t="s">
         <v>58</v>
@@ -1582,8 +1582,8 @@
       <c r="AJ11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK11" s="11" t="s">
-        <v>58</v>
+      <c r="AK11" s="11">
+        <v>0</v>
       </c>
       <c r="AL11" s="11">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="11">
         <v>30</v>
       </c>
-      <c r="AS11" s="11" t="s">
-        <v>58</v>
+      <c r="AR11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>5</v>
       </c>
       <c r="AT11" s="11">
         <v>5</v>
       </c>
       <c r="AU11" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV11" s="11">
-        <v>1</v>
+        <v>233</v>
       </c>
       <c r="AW11" s="11">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="AX11" s="11">
-        <v>323</v>
+        <v>672</v>
       </c>
       <c r="AY11" s="11">
-        <v>672</v>
+        <v>848</v>
       </c>
       <c r="AZ11" s="11">
-        <v>848</v>
+        <v>1198</v>
       </c>
       <c r="BA11" s="11">
-        <v>1198</v>
+        <v>793</v>
       </c>
       <c r="BB11" s="11">
-        <v>793</v>
+        <v>696</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1699,104 +1699,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>1239</v>
       </c>
       <c r="X12" s="13">
-        <v>1239</v>
+        <v>5683</v>
       </c>
       <c r="Y12" s="13">
-        <v>5683</v>
+        <v>3734</v>
       </c>
       <c r="Z12" s="13">
-        <v>3734</v>
+        <v>5548</v>
       </c>
       <c r="AA12" s="13">
-        <v>5548</v>
+        <v>6135</v>
       </c>
       <c r="AB12" s="13">
-        <v>6135</v>
+        <v>8339</v>
       </c>
       <c r="AC12" s="13">
-        <v>8339</v>
+        <v>3636</v>
       </c>
       <c r="AD12" s="13">
-        <v>3636</v>
+        <v>4440</v>
       </c>
       <c r="AE12" s="13">
-        <v>4440</v>
+        <v>6273</v>
       </c>
       <c r="AF12" s="13">
-        <v>6273</v>
+        <v>3774</v>
       </c>
       <c r="AG12" s="13">
-        <v>3774</v>
+        <v>862</v>
       </c>
       <c r="AH12" s="13">
-        <v>862</v>
+        <v>4509</v>
       </c>
       <c r="AI12" s="13">
-        <v>4509</v>
+        <v>3101</v>
       </c>
       <c r="AJ12" s="13">
-        <v>3101</v>
+        <v>6738</v>
       </c>
       <c r="AK12" s="13">
-        <v>6738</v>
+        <v>6754</v>
       </c>
       <c r="AL12" s="13">
-        <v>6754</v>
+        <v>5056</v>
       </c>
       <c r="AM12" s="13">
-        <v>5056</v>
+        <v>4698</v>
       </c>
       <c r="AN12" s="13">
-        <v>4698</v>
+        <v>2214</v>
       </c>
       <c r="AO12" s="13">
-        <v>2214</v>
+        <v>4234</v>
       </c>
       <c r="AP12" s="13">
-        <v>4234</v>
+        <v>4587</v>
       </c>
       <c r="AQ12" s="13">
-        <v>4587</v>
+        <v>3278</v>
       </c>
       <c r="AR12" s="13">
-        <v>3278</v>
+        <v>3188</v>
       </c>
       <c r="AS12" s="13">
-        <v>3188</v>
+        <v>8258</v>
       </c>
       <c r="AT12" s="13">
-        <v>8258</v>
+        <v>7172</v>
       </c>
       <c r="AU12" s="13">
-        <v>7172</v>
+        <v>4768</v>
       </c>
       <c r="AV12" s="13">
-        <v>4768</v>
+        <v>6301</v>
       </c>
       <c r="AW12" s="13">
-        <v>6301</v>
+        <v>8355</v>
       </c>
       <c r="AX12" s="13">
-        <v>8355</v>
+        <v>5719</v>
       </c>
       <c r="AY12" s="13">
-        <v>5719</v>
+        <v>5853</v>
       </c>
       <c r="AZ12" s="13">
-        <v>5853</v>
+        <v>5845</v>
       </c>
       <c r="BA12" s="13">
-        <v>5845</v>
+        <v>4865</v>
       </c>
       <c r="BB12" s="13">
-        <v>4865</v>
+        <v>6266</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1885,11 +1885,11 @@
       <c r="AE13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>0</v>
+      <c r="AF13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH13" s="11" t="s">
         <v>58</v>
@@ -1906,29 +1906,29 @@
       <c r="AL13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM13" s="11" t="s">
-        <v>58</v>
+      <c r="AM13" s="11">
+        <v>0</v>
       </c>
       <c r="AN13" s="11">
         <v>0</v>
       </c>
-      <c r="AO13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="11" t="s">
-        <v>58</v>
+      <c r="AO13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>0</v>
       </c>
       <c r="AQ13" s="11">
         <v>0</v>
       </c>
-      <c r="AR13" s="11">
-        <v>0</v>
+      <c r="AR13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT13" s="11" t="s">
-        <v>58</v>
+      <c r="AT13" s="11">
+        <v>0</v>
       </c>
       <c r="AU13" s="11">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>62</v>
       </c>
@@ -2017,104 +2017,104 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>1160</v>
       </c>
       <c r="X14" s="13">
-        <v>1160</v>
+        <v>722</v>
       </c>
       <c r="Y14" s="13">
-        <v>722</v>
+        <v>1041</v>
       </c>
       <c r="Z14" s="13">
-        <v>1041</v>
+        <v>970</v>
       </c>
       <c r="AA14" s="13">
-        <v>970</v>
+        <v>905</v>
       </c>
       <c r="AB14" s="13">
-        <v>905</v>
+        <v>1757</v>
       </c>
       <c r="AC14" s="13">
-        <v>1757</v>
+        <v>1515</v>
       </c>
       <c r="AD14" s="13">
-        <v>1515</v>
+        <v>1573</v>
       </c>
       <c r="AE14" s="13">
-        <v>1573</v>
+        <v>1366</v>
       </c>
       <c r="AF14" s="13">
-        <v>1366</v>
+        <v>1516</v>
       </c>
       <c r="AG14" s="13">
-        <v>1516</v>
+        <v>2537</v>
       </c>
       <c r="AH14" s="13">
-        <v>2537</v>
+        <v>2939</v>
       </c>
       <c r="AI14" s="13">
-        <v>2939</v>
+        <v>2520</v>
       </c>
       <c r="AJ14" s="13">
-        <v>2520</v>
+        <v>1549</v>
       </c>
       <c r="AK14" s="13">
-        <v>1549</v>
+        <v>3069</v>
       </c>
       <c r="AL14" s="13">
-        <v>3069</v>
+        <v>2778</v>
       </c>
       <c r="AM14" s="13">
-        <v>2778</v>
+        <v>3955</v>
       </c>
       <c r="AN14" s="13">
-        <v>3955</v>
+        <v>4411</v>
       </c>
       <c r="AO14" s="13">
-        <v>4411</v>
+        <v>4092</v>
       </c>
       <c r="AP14" s="13">
-        <v>4092</v>
+        <v>3921</v>
       </c>
       <c r="AQ14" s="13">
-        <v>3921</v>
+        <v>2342</v>
       </c>
       <c r="AR14" s="13">
-        <v>2342</v>
+        <v>1772</v>
       </c>
       <c r="AS14" s="13">
-        <v>1772</v>
+        <v>2704</v>
       </c>
       <c r="AT14" s="13">
-        <v>2704</v>
+        <v>3310</v>
       </c>
       <c r="AU14" s="13">
-        <v>3310</v>
+        <v>2095</v>
       </c>
       <c r="AV14" s="13">
-        <v>2095</v>
+        <v>827</v>
       </c>
       <c r="AW14" s="13">
-        <v>827</v>
+        <v>1242</v>
       </c>
       <c r="AX14" s="13">
-        <v>1242</v>
+        <v>2167</v>
       </c>
       <c r="AY14" s="13">
-        <v>2167</v>
+        <v>3000</v>
       </c>
       <c r="AZ14" s="13">
-        <v>3000</v>
+        <v>3297</v>
       </c>
       <c r="BA14" s="13">
-        <v>3297</v>
+        <v>2705</v>
       </c>
       <c r="BB14" s="13">
-        <v>2705</v>
+        <v>3296</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>63</v>
       </c>
@@ -2176,104 +2176,104 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>5633</v>
       </c>
       <c r="X15" s="11">
-        <v>5633</v>
+        <v>3614</v>
       </c>
       <c r="Y15" s="11">
-        <v>3614</v>
+        <v>4694</v>
       </c>
       <c r="Z15" s="11">
-        <v>4694</v>
+        <v>3904</v>
       </c>
       <c r="AA15" s="11">
-        <v>3904</v>
+        <v>4182</v>
       </c>
       <c r="AB15" s="11">
-        <v>4182</v>
+        <v>5978</v>
       </c>
       <c r="AC15" s="11">
-        <v>5978</v>
+        <v>5019</v>
       </c>
       <c r="AD15" s="11">
-        <v>5019</v>
+        <v>5440</v>
       </c>
       <c r="AE15" s="11">
-        <v>5440</v>
+        <v>4377</v>
       </c>
       <c r="AF15" s="11">
-        <v>4377</v>
+        <v>3068</v>
       </c>
       <c r="AG15" s="11">
-        <v>3068</v>
+        <v>3869</v>
       </c>
       <c r="AH15" s="11">
-        <v>3869</v>
+        <v>4905</v>
       </c>
       <c r="AI15" s="11">
-        <v>4905</v>
+        <v>4674</v>
       </c>
       <c r="AJ15" s="11">
-        <v>4674</v>
+        <v>3492</v>
       </c>
       <c r="AK15" s="11">
-        <v>3492</v>
+        <v>5618</v>
       </c>
       <c r="AL15" s="11">
-        <v>5618</v>
+        <v>3571</v>
       </c>
       <c r="AM15" s="11">
-        <v>3571</v>
+        <v>4141</v>
       </c>
       <c r="AN15" s="11">
-        <v>4141</v>
+        <v>4370</v>
       </c>
       <c r="AO15" s="11">
-        <v>4370</v>
+        <v>4791</v>
       </c>
       <c r="AP15" s="11">
-        <v>4791</v>
+        <v>3900</v>
       </c>
       <c r="AQ15" s="11">
-        <v>3900</v>
+        <v>3849</v>
       </c>
       <c r="AR15" s="11">
-        <v>3849</v>
+        <v>1698</v>
       </c>
       <c r="AS15" s="11">
-        <v>1698</v>
+        <v>4303</v>
       </c>
       <c r="AT15" s="11">
-        <v>4303</v>
+        <v>8610</v>
       </c>
       <c r="AU15" s="11">
-        <v>8610</v>
+        <v>6001</v>
       </c>
       <c r="AV15" s="11">
-        <v>6001</v>
+        <v>5411</v>
       </c>
       <c r="AW15" s="11">
-        <v>5411</v>
+        <v>8278</v>
       </c>
       <c r="AX15" s="11">
-        <v>8278</v>
+        <v>6686</v>
       </c>
       <c r="AY15" s="11">
-        <v>6686</v>
+        <v>6652</v>
       </c>
       <c r="AZ15" s="11">
-        <v>6652</v>
+        <v>9206</v>
       </c>
       <c r="BA15" s="11">
-        <v>9206</v>
+        <v>8993</v>
       </c>
       <c r="BB15" s="11">
-        <v>8993</v>
+        <v>10006</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>64</v>
       </c>
@@ -2335,8 +2335,8 @@
       <c r="V16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>58</v>
+      <c r="W16" s="13">
+        <v>0</v>
       </c>
       <c r="X16" s="13">
         <v>0</v>
@@ -2365,20 +2365,20 @@
       <c r="AF16" s="13">
         <v>0</v>
       </c>
-      <c r="AG16" s="13">
-        <v>0</v>
+      <c r="AG16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="13" t="s">
-        <v>58</v>
+      <c r="AI16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>0</v>
       </c>
       <c r="AL16" s="13">
         <v>0</v>
@@ -2398,8 +2398,8 @@
       <c r="AQ16" s="13">
         <v>0</v>
       </c>
-      <c r="AR16" s="13">
-        <v>0</v>
+      <c r="AR16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS16" s="13" t="s">
         <v>58</v>
@@ -2432,7 +2432,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>65</v>
       </c>
@@ -2494,104 +2494,104 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>27402</v>
       </c>
       <c r="X17" s="11">
-        <v>27402</v>
+        <v>24892</v>
       </c>
       <c r="Y17" s="11">
-        <v>24892</v>
+        <v>31698</v>
       </c>
       <c r="Z17" s="11">
-        <v>31698</v>
+        <v>26880</v>
       </c>
       <c r="AA17" s="11">
-        <v>26880</v>
+        <v>29660</v>
       </c>
       <c r="AB17" s="11">
-        <v>29660</v>
+        <v>39142</v>
       </c>
       <c r="AC17" s="11">
-        <v>39142</v>
+        <v>31402</v>
       </c>
       <c r="AD17" s="11">
-        <v>31402</v>
+        <v>32410</v>
       </c>
       <c r="AE17" s="11">
-        <v>32410</v>
+        <v>34012</v>
       </c>
       <c r="AF17" s="11">
-        <v>34012</v>
+        <v>24729</v>
       </c>
       <c r="AG17" s="11">
-        <v>24729</v>
+        <v>12822</v>
       </c>
       <c r="AH17" s="11">
-        <v>12822</v>
+        <v>29986</v>
       </c>
       <c r="AI17" s="11">
-        <v>29986</v>
+        <v>36228</v>
       </c>
       <c r="AJ17" s="11">
-        <v>36228</v>
+        <v>12737</v>
       </c>
       <c r="AK17" s="11">
-        <v>12737</v>
+        <v>19085</v>
       </c>
       <c r="AL17" s="11">
-        <v>19085</v>
+        <v>23474</v>
       </c>
       <c r="AM17" s="11">
-        <v>23474</v>
+        <v>25570</v>
       </c>
       <c r="AN17" s="11">
-        <v>25570</v>
+        <v>30050</v>
       </c>
       <c r="AO17" s="11">
-        <v>30050</v>
+        <v>40194</v>
       </c>
       <c r="AP17" s="11">
-        <v>40194</v>
+        <v>33967</v>
       </c>
       <c r="AQ17" s="11">
-        <v>33967</v>
+        <v>8889</v>
       </c>
       <c r="AR17" s="11">
-        <v>8889</v>
+        <v>17368</v>
       </c>
       <c r="AS17" s="11">
-        <v>17368</v>
+        <v>23240</v>
       </c>
       <c r="AT17" s="11">
-        <v>23240</v>
+        <v>36520</v>
       </c>
       <c r="AU17" s="11">
-        <v>36520</v>
+        <v>29282</v>
       </c>
       <c r="AV17" s="11">
-        <v>29282</v>
+        <v>26371</v>
       </c>
       <c r="AW17" s="11">
-        <v>26371</v>
+        <v>24994</v>
       </c>
       <c r="AX17" s="11">
-        <v>24994</v>
+        <v>29779</v>
       </c>
       <c r="AY17" s="11">
-        <v>29779</v>
+        <v>35423</v>
       </c>
       <c r="AZ17" s="11">
-        <v>35423</v>
+        <v>35501</v>
       </c>
       <c r="BA17" s="11">
-        <v>35501</v>
+        <v>30521</v>
       </c>
       <c r="BB17" s="11">
-        <v>30521</v>
+        <v>36561</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
@@ -2680,23 +2680,23 @@
       <c r="AE18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG18" s="13">
-        <v>0</v>
+      <c r="AF18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="13" t="s">
-        <v>58</v>
+      <c r="AI18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>0</v>
       </c>
       <c r="AL18" s="13">
         <v>0</v>
@@ -2705,19 +2705,19 @@
         <v>0</v>
       </c>
       <c r="AN18" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO18" s="13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AP18" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AQ18" s="13">
-        <v>8</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AR18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS18" s="13" t="s">
         <v>58</v>
@@ -2750,7 +2750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>67</v>
       </c>
@@ -2812,8 +2812,8 @@
       <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
+      <c r="W19" s="11">
+        <v>0</v>
       </c>
       <c r="X19" s="11">
         <v>0</v>
@@ -2842,14 +2842,14 @@
       <c r="AF19" s="11">
         <v>0</v>
       </c>
-      <c r="AG19" s="11">
-        <v>0</v>
+      <c r="AG19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI19" s="11" t="s">
-        <v>58</v>
+      <c r="AI19" s="11">
+        <v>0</v>
       </c>
       <c r="AJ19" s="11">
         <v>0</v>
@@ -2875,8 +2875,8 @@
       <c r="AQ19" s="11">
         <v>0</v>
       </c>
-      <c r="AR19" s="11">
-        <v>0</v>
+      <c r="AR19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS19" s="11" t="s">
         <v>58</v>
@@ -2909,7 +2909,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>68</v>
       </c>
@@ -2971,104 +2971,104 @@
       <c r="V20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="13" t="s">
-        <v>58</v>
+      <c r="W20" s="13">
+        <v>75</v>
       </c>
       <c r="X20" s="13">
-        <v>75</v>
+        <v>962</v>
       </c>
       <c r="Y20" s="13">
-        <v>962</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="13">
+        <v>707</v>
+      </c>
+      <c r="AA20" s="13">
         <v>1</v>
       </c>
-      <c r="AA20" s="13">
-        <v>707</v>
-      </c>
       <c r="AB20" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD20" s="13">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AE20" s="13">
-        <v>17</v>
+        <v>1752</v>
       </c>
       <c r="AF20" s="13">
-        <v>1752</v>
+        <v>732</v>
       </c>
       <c r="AG20" s="13">
+        <v>184</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>203</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>761</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>77</v>
+      </c>
+      <c r="AK20" s="13">
         <v>732</v>
       </c>
-      <c r="AH20" s="13">
-        <v>184</v>
-      </c>
-      <c r="AI20" s="13">
-        <v>203</v>
-      </c>
-      <c r="AJ20" s="13">
-        <v>761</v>
-      </c>
-      <c r="AK20" s="13">
-        <v>77</v>
-      </c>
       <c r="AL20" s="13">
-        <v>732</v>
+        <v>556</v>
       </c>
       <c r="AM20" s="13">
-        <v>556</v>
+        <v>375</v>
       </c>
       <c r="AN20" s="13">
-        <v>375</v>
+        <v>651</v>
       </c>
       <c r="AO20" s="13">
-        <v>651</v>
+        <v>1195</v>
       </c>
       <c r="AP20" s="13">
-        <v>1195</v>
+        <v>1227</v>
       </c>
       <c r="AQ20" s="13">
-        <v>1227</v>
+        <v>1954</v>
       </c>
       <c r="AR20" s="13">
-        <v>1954</v>
+        <v>534</v>
       </c>
       <c r="AS20" s="13">
-        <v>534</v>
+        <v>1211</v>
       </c>
       <c r="AT20" s="13">
-        <v>1211</v>
+        <v>1738</v>
       </c>
       <c r="AU20" s="13">
-        <v>1738</v>
+        <v>1985</v>
       </c>
       <c r="AV20" s="13">
-        <v>1985</v>
+        <v>1102</v>
       </c>
       <c r="AW20" s="13">
-        <v>1102</v>
+        <v>944</v>
       </c>
       <c r="AX20" s="13">
-        <v>944</v>
+        <v>1169</v>
       </c>
       <c r="AY20" s="13">
-        <v>1169</v>
+        <v>1568</v>
       </c>
       <c r="AZ20" s="13">
-        <v>1568</v>
+        <v>1370</v>
       </c>
       <c r="BA20" s="13">
-        <v>1370</v>
+        <v>1327</v>
       </c>
       <c r="BB20" s="13">
-        <v>1327</v>
+        <v>1711</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>69</v>
       </c>
@@ -3130,11 +3130,11 @@
       <c r="V21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="11" t="s">
-        <v>58</v>
+      <c r="W21" s="11">
+        <v>94</v>
       </c>
       <c r="X21" s="11">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="11">
         <v>0</v>
@@ -3160,20 +3160,20 @@
       <c r="AF21" s="11">
         <v>0</v>
       </c>
-      <c r="AG21" s="11">
-        <v>0</v>
+      <c r="AG21" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="11" t="s">
-        <v>58</v>
+      <c r="AI21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK21" s="11">
+        <v>0</v>
       </c>
       <c r="AL21" s="11">
         <v>0</v>
@@ -3193,11 +3193,11 @@
       <c r="AQ21" s="11">
         <v>0</v>
       </c>
-      <c r="AR21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="11" t="s">
-        <v>58</v>
+      <c r="AR21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS21" s="11">
+        <v>0</v>
       </c>
       <c r="AT21" s="11">
         <v>0</v>
@@ -3205,8 +3205,8 @@
       <c r="AU21" s="11">
         <v>0</v>
       </c>
-      <c r="AV21" s="11">
-        <v>0</v>
+      <c r="AV21" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW21" s="11" t="s">
         <v>58</v>
@@ -3227,7 +3227,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
@@ -3289,36 +3289,36 @@
       <c r="V22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W22" s="13" t="s">
-        <v>58</v>
+      <c r="W22" s="13">
+        <v>231</v>
       </c>
       <c r="X22" s="13">
-        <v>231</v>
+        <v>865</v>
       </c>
       <c r="Y22" s="13">
-        <v>865</v>
+        <v>1410</v>
       </c>
       <c r="Z22" s="13">
-        <v>1410</v>
+        <v>667</v>
       </c>
       <c r="AA22" s="13">
-        <v>667</v>
+        <v>21</v>
       </c>
       <c r="AB22" s="13">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AC22" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="13">
         <v>0</v>
       </c>
       <c r="AE22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="13">
         <v>483</v>
       </c>
+      <c r="AF22" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG22" s="13" t="s">
         <v>58</v>
       </c>
@@ -3352,12 +3352,12 @@
       <c r="AQ22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS22" s="13">
+      <c r="AR22" s="13">
         <v>4</v>
       </c>
+      <c r="AS22" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT22" s="13" t="s">
         <v>58</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>71</v>
       </c>
@@ -3448,35 +3448,35 @@
       <c r="V23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W23" s="11" t="s">
-        <v>58</v>
+      <c r="W23" s="11">
+        <v>2</v>
       </c>
       <c r="X23" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z23" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA23" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="11">
         <v>0</v>
       </c>
       <c r="AC23" s="11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD23" s="11">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="11">
         <v>0</v>
       </c>
-      <c r="AF23" s="11">
-        <v>0</v>
+      <c r="AF23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG23" s="11" t="s">
         <v>58</v>
@@ -3484,14 +3484,14 @@
       <c r="AH23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ23" s="11">
+      <c r="AI23" s="11">
         <v>103</v>
       </c>
-      <c r="AK23" s="11" t="s">
-        <v>58</v>
+      <c r="AJ23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK23" s="11">
+        <v>0</v>
       </c>
       <c r="AL23" s="11">
         <v>0</v>
@@ -3509,11 +3509,11 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="11">
         <v>41</v>
       </c>
+      <c r="AR23" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS23" s="11" t="s">
         <v>58</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>72</v>
       </c>
@@ -3622,89 +3622,89 @@
       <c r="AA24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB24" s="13" t="s">
-        <v>58</v>
+      <c r="AB24" s="13">
+        <v>33</v>
       </c>
       <c r="AC24" s="13">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="AD24" s="13">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AE24" s="13">
-        <v>32</v>
-      </c>
-      <c r="AF24" s="13">
         <v>69</v>
       </c>
-      <c r="AG24" s="13" t="s">
-        <v>58</v>
+      <c r="AF24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG24" s="13">
+        <v>154</v>
       </c>
       <c r="AH24" s="13">
-        <v>154</v>
+        <v>407</v>
       </c>
       <c r="AI24" s="13">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="AJ24" s="13">
-        <v>428</v>
+        <v>318</v>
       </c>
       <c r="AK24" s="13">
-        <v>318</v>
+        <v>720</v>
       </c>
       <c r="AL24" s="13">
-        <v>720</v>
+        <v>907</v>
       </c>
       <c r="AM24" s="13">
-        <v>907</v>
+        <v>1648</v>
       </c>
       <c r="AN24" s="13">
-        <v>1648</v>
+        <v>1186</v>
       </c>
       <c r="AO24" s="13">
-        <v>1186</v>
+        <v>1257</v>
       </c>
       <c r="AP24" s="13">
-        <v>1257</v>
+        <v>892</v>
       </c>
       <c r="AQ24" s="13">
-        <v>892</v>
+        <v>585</v>
       </c>
       <c r="AR24" s="13">
-        <v>585</v>
+        <v>477</v>
       </c>
       <c r="AS24" s="13">
-        <v>477</v>
+        <v>1084</v>
       </c>
       <c r="AT24" s="13">
-        <v>1084</v>
+        <v>686</v>
       </c>
       <c r="AU24" s="13">
-        <v>686</v>
+        <v>1950</v>
       </c>
       <c r="AV24" s="13">
-        <v>1950</v>
+        <v>1097</v>
       </c>
       <c r="AW24" s="13">
-        <v>1097</v>
+        <v>1243</v>
       </c>
       <c r="AX24" s="13">
-        <v>1243</v>
+        <v>1787</v>
       </c>
       <c r="AY24" s="13">
-        <v>1787</v>
+        <v>2372</v>
       </c>
       <c r="AZ24" s="13">
-        <v>2372</v>
+        <v>4248</v>
       </c>
       <c r="BA24" s="13">
-        <v>4248</v>
+        <v>4127</v>
       </c>
       <c r="BB24" s="13">
-        <v>4127</v>
+        <v>4469</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>73</v>
       </c>
@@ -3765,103 +3765,103 @@
         <v>0</v>
       </c>
       <c r="W25" s="15">
-        <v>0</v>
+        <v>35836</v>
       </c>
       <c r="X25" s="15">
-        <v>35836</v>
+        <v>36739</v>
       </c>
       <c r="Y25" s="15">
-        <v>36739</v>
+        <v>42585</v>
       </c>
       <c r="Z25" s="15">
-        <v>42585</v>
+        <v>38680</v>
       </c>
       <c r="AA25" s="15">
-        <v>38680</v>
+        <v>40904</v>
       </c>
       <c r="AB25" s="15">
-        <v>40904</v>
+        <v>55252</v>
       </c>
       <c r="AC25" s="15">
-        <v>55252</v>
+        <v>41608</v>
       </c>
       <c r="AD25" s="15">
-        <v>41608</v>
+        <v>43912</v>
       </c>
       <c r="AE25" s="15">
-        <v>43912</v>
+        <v>48332</v>
       </c>
       <c r="AF25" s="15">
-        <v>48332</v>
+        <v>33819</v>
       </c>
       <c r="AG25" s="15">
-        <v>33819</v>
+        <v>20428</v>
       </c>
       <c r="AH25" s="15">
-        <v>20428</v>
+        <v>42949</v>
       </c>
       <c r="AI25" s="15">
-        <v>42949</v>
+        <v>47815</v>
       </c>
       <c r="AJ25" s="15">
-        <v>47815</v>
+        <v>24911</v>
       </c>
       <c r="AK25" s="15">
-        <v>24911</v>
+        <v>35978</v>
       </c>
       <c r="AL25" s="15">
-        <v>35978</v>
+        <v>36342</v>
       </c>
       <c r="AM25" s="15">
-        <v>36342</v>
+        <v>40387</v>
       </c>
       <c r="AN25" s="15">
-        <v>40387</v>
+        <v>42894</v>
       </c>
       <c r="AO25" s="15">
-        <v>42894</v>
+        <v>55764</v>
       </c>
       <c r="AP25" s="15">
-        <v>55764</v>
+        <v>48502</v>
       </c>
       <c r="AQ25" s="15">
-        <v>48502</v>
+        <v>20968</v>
       </c>
       <c r="AR25" s="15">
-        <v>20968</v>
+        <v>25041</v>
       </c>
       <c r="AS25" s="15">
-        <v>25041</v>
+        <v>40805</v>
       </c>
       <c r="AT25" s="15">
-        <v>40805</v>
+        <v>58041</v>
       </c>
       <c r="AU25" s="15">
-        <v>58041</v>
+        <v>46082</v>
       </c>
       <c r="AV25" s="15">
-        <v>46082</v>
+        <v>41342</v>
       </c>
       <c r="AW25" s="15">
-        <v>41342</v>
+        <v>45379</v>
       </c>
       <c r="AX25" s="15">
-        <v>45379</v>
+        <v>47979</v>
       </c>
       <c r="AY25" s="15">
-        <v>47979</v>
+        <v>55716</v>
       </c>
       <c r="AZ25" s="15">
-        <v>55716</v>
+        <v>60665</v>
       </c>
       <c r="BA25" s="15">
-        <v>60665</v>
+        <v>53331</v>
       </c>
       <c r="BB25" s="15">
-        <v>53331</v>
+        <v>63005</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>74</v>
       </c>
@@ -3918,7 +3918,7 @@
       <c r="BA26" s="9"/>
       <c r="BB26" s="9"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>59</v>
       </c>
@@ -4007,11 +4007,11 @@
       <c r="AE27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG27" s="11">
-        <v>0</v>
+      <c r="AF27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH27" s="11" t="s">
         <v>58</v>
@@ -4077,7 +4077,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>62</v>
       </c>
@@ -4166,11 +4166,11 @@
       <c r="AE28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG28" s="13">
-        <v>0</v>
+      <c r="AF28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH28" s="13" t="s">
         <v>58</v>
@@ -4236,7 +4236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>63</v>
       </c>
@@ -4325,11 +4325,11 @@
       <c r="AE29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG29" s="11">
-        <v>0</v>
+      <c r="AF29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH29" s="11" t="s">
         <v>58</v>
@@ -4395,7 +4395,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>65</v>
       </c>
@@ -4484,11 +4484,11 @@
       <c r="AE30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG30" s="13">
-        <v>0</v>
+      <c r="AF30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH30" s="13" t="s">
         <v>58</v>
@@ -4554,7 +4554,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>66</v>
       </c>
@@ -4643,11 +4643,11 @@
       <c r="AE31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG31" s="11">
-        <v>0</v>
+      <c r="AF31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH31" s="11" t="s">
         <v>58</v>
@@ -4713,7 +4713,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>67</v>
       </c>
@@ -4802,11 +4802,11 @@
       <c r="AE32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG32" s="13">
-        <v>0</v>
+      <c r="AF32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH32" s="13" t="s">
         <v>58</v>
@@ -4872,7 +4872,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>68</v>
       </c>
@@ -4961,11 +4961,11 @@
       <c r="AE33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG33" s="11">
-        <v>0</v>
+      <c r="AF33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH33" s="11" t="s">
         <v>58</v>
@@ -5031,7 +5031,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>69</v>
       </c>
@@ -5120,11 +5120,11 @@
       <c r="AE34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG34" s="13">
-        <v>0</v>
+      <c r="AF34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH34" s="13" t="s">
         <v>58</v>
@@ -5190,7 +5190,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>75</v>
       </c>
@@ -5279,11 +5279,11 @@
       <c r="AE35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG35" s="11">
-        <v>0</v>
+      <c r="AF35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH35" s="11" t="s">
         <v>58</v>
@@ -5349,7 +5349,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>76</v>
       </c>
@@ -5471,17 +5471,17 @@
       <c r="AP36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR36" s="13">
+      <c r="AQ36" s="13">
         <v>342</v>
       </c>
+      <c r="AR36" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT36" s="13" t="s">
-        <v>58</v>
+      <c r="AT36" s="13">
+        <v>0</v>
       </c>
       <c r="AU36" s="13">
         <v>0</v>
@@ -5490,25 +5490,25 @@
         <v>0</v>
       </c>
       <c r="AW36" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX36" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AY36" s="13">
         <v>0</v>
       </c>
       <c r="AZ36" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA36" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>77</v>
       </c>
@@ -5630,14 +5630,14 @@
       <c r="AP37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS37" s="11" t="s">
-        <v>58</v>
+      <c r="AQ37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS37" s="11">
+        <v>0</v>
       </c>
       <c r="AT37" s="11">
         <v>0</v>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>79</v>
       </c>
@@ -5788,10 +5788,10 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="17">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="AR38" s="17">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="17">
         <v>0</v>
@@ -5806,25 +5806,25 @@
         <v>0</v>
       </c>
       <c r="AW38" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX38" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="17">
         <v>0</v>
       </c>
       <c r="AZ38" s="17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA38" s="17">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>80</v>
       </c>
@@ -5881,7 +5881,7 @@
       <c r="BA39" s="19"/>
       <c r="BB39" s="19"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
         <v>81</v>
       </c>
@@ -5941,8 +5941,8 @@
       <c r="V40" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W40" s="15" t="s">
-        <v>58</v>
+      <c r="W40" s="15">
+        <v>0</v>
       </c>
       <c r="X40" s="15">
         <v>0</v>
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>82</v>
       </c>
@@ -6099,103 +6099,103 @@
         <v>0</v>
       </c>
       <c r="W41" s="17">
-        <v>0</v>
+        <v>35836</v>
       </c>
       <c r="X41" s="17">
-        <v>35836</v>
+        <v>36739</v>
       </c>
       <c r="Y41" s="17">
-        <v>36739</v>
+        <v>42585</v>
       </c>
       <c r="Z41" s="17">
-        <v>42585</v>
+        <v>38680</v>
       </c>
       <c r="AA41" s="17">
-        <v>38680</v>
+        <v>40904</v>
       </c>
       <c r="AB41" s="17">
-        <v>40904</v>
+        <v>55252</v>
       </c>
       <c r="AC41" s="17">
-        <v>55252</v>
+        <v>41608</v>
       </c>
       <c r="AD41" s="17">
-        <v>41608</v>
+        <v>43912</v>
       </c>
       <c r="AE41" s="17">
-        <v>43912</v>
+        <v>48332</v>
       </c>
       <c r="AF41" s="17">
-        <v>48332</v>
+        <v>33819</v>
       </c>
       <c r="AG41" s="17">
-        <v>33819</v>
+        <v>20428</v>
       </c>
       <c r="AH41" s="17">
-        <v>20428</v>
+        <v>42949</v>
       </c>
       <c r="AI41" s="17">
-        <v>42949</v>
+        <v>47815</v>
       </c>
       <c r="AJ41" s="17">
-        <v>47815</v>
+        <v>24911</v>
       </c>
       <c r="AK41" s="17">
-        <v>24911</v>
+        <v>35978</v>
       </c>
       <c r="AL41" s="17">
-        <v>35978</v>
+        <v>36342</v>
       </c>
       <c r="AM41" s="17">
-        <v>36342</v>
+        <v>40387</v>
       </c>
       <c r="AN41" s="17">
-        <v>40387</v>
+        <v>42894</v>
       </c>
       <c r="AO41" s="17">
-        <v>42894</v>
+        <v>55764</v>
       </c>
       <c r="AP41" s="17">
-        <v>55764</v>
+        <v>48502</v>
       </c>
       <c r="AQ41" s="17">
-        <v>48502</v>
+        <v>21310</v>
       </c>
       <c r="AR41" s="17">
-        <v>21310</v>
+        <v>25041</v>
       </c>
       <c r="AS41" s="17">
-        <v>25041</v>
+        <v>40805</v>
       </c>
       <c r="AT41" s="17">
-        <v>40805</v>
+        <v>58041</v>
       </c>
       <c r="AU41" s="17">
-        <v>58041</v>
+        <v>46082</v>
       </c>
       <c r="AV41" s="17">
-        <v>46082</v>
+        <v>41342</v>
       </c>
       <c r="AW41" s="17">
-        <v>41342</v>
+        <v>45389</v>
       </c>
       <c r="AX41" s="17">
-        <v>45389</v>
+        <v>47979</v>
       </c>
       <c r="AY41" s="17">
-        <v>47979</v>
+        <v>55716</v>
       </c>
       <c r="AZ41" s="17">
-        <v>55716</v>
+        <v>60677</v>
       </c>
       <c r="BA41" s="17">
-        <v>60677</v>
+        <v>53331</v>
       </c>
       <c r="BB41" s="17">
-        <v>53331</v>
+        <v>63005</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -6250,7 +6250,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -6305,7 +6305,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -6360,7 +6360,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>83</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6572,7 +6572,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>84</v>
       </c>
@@ -6629,7 +6629,7 @@
       <c r="BA47" s="9"/>
       <c r="BB47" s="9"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>56</v>
       </c>
@@ -6718,11 +6718,11 @@
       <c r="AE48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG48" s="11">
-        <v>0</v>
+      <c r="AF48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH48" s="11" t="s">
         <v>58</v>
@@ -6733,8 +6733,8 @@
       <c r="AJ48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK48" s="11" t="s">
-        <v>58</v>
+      <c r="AK48" s="11">
+        <v>0</v>
       </c>
       <c r="AL48" s="11">
         <v>0</v>
@@ -6752,25 +6752,25 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR48" s="11">
         <v>-14</v>
       </c>
-      <c r="AS48" s="11" t="s">
-        <v>58</v>
+      <c r="AR48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS48" s="11">
+        <v>0</v>
       </c>
       <c r="AT48" s="11">
         <v>0</v>
       </c>
       <c r="AU48" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV48" s="11">
-        <v>8</v>
+        <v>605</v>
       </c>
       <c r="AW48" s="11">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="11">
         <v>0</v>
@@ -6779,16 +6779,16 @@
         <v>0</v>
       </c>
       <c r="AZ48" s="11">
-        <v>0</v>
+        <v>2324</v>
       </c>
       <c r="BA48" s="11">
-        <v>2324</v>
+        <v>1550</v>
       </c>
       <c r="BB48" s="11">
-        <v>1550</v>
+        <v>819</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>59</v>
       </c>
@@ -6850,104 +6850,104 @@
       <c r="V49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W49" s="13" t="s">
-        <v>58</v>
+      <c r="W49" s="13">
+        <v>3072</v>
       </c>
       <c r="X49" s="13">
-        <v>3072</v>
+        <v>4880</v>
       </c>
       <c r="Y49" s="13">
-        <v>4880</v>
+        <v>4198</v>
       </c>
       <c r="Z49" s="13">
-        <v>4198</v>
+        <v>5855</v>
       </c>
       <c r="AA49" s="13">
-        <v>5855</v>
+        <v>6098</v>
       </c>
       <c r="AB49" s="13">
-        <v>6098</v>
+        <v>7833</v>
       </c>
       <c r="AC49" s="13">
-        <v>7833</v>
+        <v>4223</v>
       </c>
       <c r="AD49" s="13">
-        <v>4223</v>
+        <v>3805</v>
       </c>
       <c r="AE49" s="13">
-        <v>3805</v>
+        <v>6539</v>
       </c>
       <c r="AF49" s="13">
-        <v>6539</v>
+        <v>3846</v>
       </c>
       <c r="AG49" s="13">
-        <v>3846</v>
+        <v>883</v>
       </c>
       <c r="AH49" s="13">
-        <v>883</v>
+        <v>4013</v>
       </c>
       <c r="AI49" s="13">
-        <v>4013</v>
+        <v>3379</v>
       </c>
       <c r="AJ49" s="13">
-        <v>3379</v>
+        <v>4939</v>
       </c>
       <c r="AK49" s="13">
-        <v>4939</v>
+        <v>7295</v>
       </c>
       <c r="AL49" s="13">
-        <v>7295</v>
+        <v>6025</v>
       </c>
       <c r="AM49" s="13">
-        <v>6025</v>
+        <v>5186</v>
       </c>
       <c r="AN49" s="13">
-        <v>5186</v>
+        <v>2518</v>
       </c>
       <c r="AO49" s="13">
-        <v>2518</v>
+        <v>3991</v>
       </c>
       <c r="AP49" s="13">
-        <v>3991</v>
+        <v>4268</v>
       </c>
       <c r="AQ49" s="13">
-        <v>4268</v>
+        <v>3722</v>
       </c>
       <c r="AR49" s="13">
-        <v>3722</v>
+        <v>3503</v>
       </c>
       <c r="AS49" s="13">
-        <v>3503</v>
+        <v>1646</v>
       </c>
       <c r="AT49" s="13">
-        <v>1646</v>
+        <v>8372</v>
       </c>
       <c r="AU49" s="13">
-        <v>8372</v>
+        <v>4190</v>
       </c>
       <c r="AV49" s="13">
-        <v>4190</v>
+        <v>6553</v>
       </c>
       <c r="AW49" s="13">
-        <v>6553</v>
+        <v>11969</v>
       </c>
       <c r="AX49" s="13">
-        <v>11969</v>
+        <v>3895</v>
       </c>
       <c r="AY49" s="13">
-        <v>3895</v>
+        <v>5370</v>
       </c>
       <c r="AZ49" s="13">
-        <v>5370</v>
+        <v>6805</v>
       </c>
       <c r="BA49" s="13">
-        <v>6805</v>
+        <v>4973</v>
       </c>
       <c r="BB49" s="13">
-        <v>4973</v>
+        <v>7502</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>60</v>
       </c>
@@ -7036,11 +7036,11 @@
       <c r="AE50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG50" s="11">
-        <v>0</v>
+      <c r="AF50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH50" s="11" t="s">
         <v>58</v>
@@ -7057,29 +7057,29 @@
       <c r="AL50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM50" s="11" t="s">
-        <v>58</v>
+      <c r="AM50" s="11">
+        <v>0</v>
       </c>
       <c r="AN50" s="11">
         <v>0</v>
       </c>
-      <c r="AO50" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP50" s="11" t="s">
-        <v>58</v>
+      <c r="AO50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP50" s="11">
+        <v>0</v>
       </c>
       <c r="AQ50" s="11">
         <v>0</v>
       </c>
-      <c r="AR50" s="11">
-        <v>0</v>
+      <c r="AR50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT50" s="11" t="s">
-        <v>58</v>
+      <c r="AT50" s="11">
+        <v>0</v>
       </c>
       <c r="AU50" s="11">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>62</v>
       </c>
@@ -7168,104 +7168,104 @@
       <c r="V51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W51" s="13" t="s">
-        <v>58</v>
+      <c r="W51" s="13">
+        <v>82</v>
       </c>
       <c r="X51" s="13">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="Y51" s="13">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Z51" s="13">
-        <v>14</v>
+        <v>4269</v>
       </c>
       <c r="AA51" s="13">
-        <v>4269</v>
+        <v>1227</v>
       </c>
       <c r="AB51" s="13">
-        <v>1227</v>
+        <v>1462</v>
       </c>
       <c r="AC51" s="13">
-        <v>1462</v>
+        <v>398</v>
       </c>
       <c r="AD51" s="13">
-        <v>398</v>
+        <v>1652</v>
       </c>
       <c r="AE51" s="13">
-        <v>1652</v>
+        <v>1760</v>
       </c>
       <c r="AF51" s="13">
-        <v>1760</v>
+        <v>315</v>
       </c>
       <c r="AG51" s="13">
-        <v>315</v>
+        <v>70</v>
       </c>
       <c r="AH51" s="13">
-        <v>70</v>
+        <v>930</v>
       </c>
       <c r="AI51" s="13">
-        <v>930</v>
+        <v>1568</v>
       </c>
       <c r="AJ51" s="13">
-        <v>1568</v>
+        <v>4527</v>
       </c>
       <c r="AK51" s="13">
-        <v>4527</v>
+        <v>2756</v>
       </c>
       <c r="AL51" s="13">
-        <v>2756</v>
+        <v>99</v>
       </c>
       <c r="AM51" s="13">
-        <v>99</v>
+        <v>7052</v>
       </c>
       <c r="AN51" s="13">
-        <v>7052</v>
+        <v>2307</v>
       </c>
       <c r="AO51" s="13">
-        <v>2307</v>
+        <v>3099</v>
       </c>
       <c r="AP51" s="13">
-        <v>3099</v>
+        <v>1274</v>
       </c>
       <c r="AQ51" s="13">
-        <v>1274</v>
+        <v>4382</v>
       </c>
       <c r="AR51" s="13">
-        <v>4382</v>
+        <v>6160</v>
       </c>
       <c r="AS51" s="13">
-        <v>6160</v>
+        <v>4463</v>
       </c>
       <c r="AT51" s="13">
-        <v>4463</v>
+        <v>4065</v>
       </c>
       <c r="AU51" s="13">
-        <v>4065</v>
+        <v>2719</v>
       </c>
       <c r="AV51" s="13">
-        <v>2719</v>
+        <v>1929</v>
       </c>
       <c r="AW51" s="13">
-        <v>1929</v>
+        <v>1461</v>
       </c>
       <c r="AX51" s="13">
-        <v>1461</v>
+        <v>2127</v>
       </c>
       <c r="AY51" s="13">
-        <v>2127</v>
+        <v>3107</v>
       </c>
       <c r="AZ51" s="13">
-        <v>3107</v>
+        <v>3306</v>
       </c>
       <c r="BA51" s="13">
-        <v>3306</v>
+        <v>2791</v>
       </c>
       <c r="BB51" s="13">
-        <v>2791</v>
+        <v>2576</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>63</v>
       </c>
@@ -7327,104 +7327,104 @@
       <c r="V52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W52" s="11" t="s">
-        <v>58</v>
+      <c r="W52" s="11">
+        <v>2094</v>
       </c>
       <c r="X52" s="11">
-        <v>2094</v>
+        <v>2457</v>
       </c>
       <c r="Y52" s="11">
-        <v>2457</v>
+        <v>7162</v>
       </c>
       <c r="Z52" s="11">
-        <v>7162</v>
+        <v>3414</v>
       </c>
       <c r="AA52" s="11">
-        <v>3414</v>
+        <v>2081</v>
       </c>
       <c r="AB52" s="11">
-        <v>2081</v>
+        <v>7802</v>
       </c>
       <c r="AC52" s="11">
-        <v>7802</v>
+        <v>6011</v>
       </c>
       <c r="AD52" s="11">
-        <v>6011</v>
+        <v>8316</v>
       </c>
       <c r="AE52" s="11">
-        <v>8316</v>
+        <v>6569</v>
       </c>
       <c r="AF52" s="11">
-        <v>6569</v>
+        <v>4292</v>
       </c>
       <c r="AG52" s="11">
-        <v>4292</v>
+        <v>3123</v>
       </c>
       <c r="AH52" s="11">
-        <v>3123</v>
+        <v>1835</v>
       </c>
       <c r="AI52" s="11">
-        <v>1835</v>
+        <v>5467</v>
       </c>
       <c r="AJ52" s="11">
-        <v>5467</v>
+        <v>4035</v>
       </c>
       <c r="AK52" s="11">
-        <v>4035</v>
+        <v>1777</v>
       </c>
       <c r="AL52" s="11">
-        <v>1777</v>
+        <v>4287</v>
       </c>
       <c r="AM52" s="11">
-        <v>4287</v>
+        <v>4681</v>
       </c>
       <c r="AN52" s="11">
-        <v>4681</v>
+        <v>581</v>
       </c>
       <c r="AO52" s="11">
-        <v>581</v>
+        <v>6645</v>
       </c>
       <c r="AP52" s="11">
-        <v>6645</v>
+        <v>4422</v>
       </c>
       <c r="AQ52" s="11">
-        <v>4422</v>
+        <v>14608</v>
       </c>
       <c r="AR52" s="11">
-        <v>14608</v>
+        <v>2508</v>
       </c>
       <c r="AS52" s="11">
-        <v>2508</v>
+        <v>4807</v>
       </c>
       <c r="AT52" s="11">
-        <v>4807</v>
+        <v>8273</v>
       </c>
       <c r="AU52" s="11">
-        <v>8273</v>
+        <v>6913</v>
       </c>
       <c r="AV52" s="11">
-        <v>6913</v>
+        <v>5905</v>
       </c>
       <c r="AW52" s="11">
-        <v>5905</v>
+        <v>8564</v>
       </c>
       <c r="AX52" s="11">
-        <v>8564</v>
+        <v>6132</v>
       </c>
       <c r="AY52" s="11">
-        <v>6132</v>
+        <v>6388</v>
       </c>
       <c r="AZ52" s="11">
-        <v>6388</v>
+        <v>8135</v>
       </c>
       <c r="BA52" s="11">
-        <v>8135</v>
+        <v>5385</v>
       </c>
       <c r="BB52" s="11">
-        <v>5385</v>
+        <v>12204</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>64</v>
       </c>
@@ -7486,8 +7486,8 @@
       <c r="V53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="13" t="s">
-        <v>58</v>
+      <c r="W53" s="13">
+        <v>0</v>
       </c>
       <c r="X53" s="13">
         <v>0</v>
@@ -7516,8 +7516,8 @@
       <c r="AF53" s="13">
         <v>0</v>
       </c>
-      <c r="AG53" s="13">
-        <v>0</v>
+      <c r="AG53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH53" s="13" t="s">
         <v>58</v>
@@ -7528,17 +7528,17 @@
       <c r="AJ53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK53" s="13" t="s">
-        <v>58</v>
+      <c r="AK53" s="13">
+        <v>0</v>
       </c>
       <c r="AL53" s="13">
         <v>0</v>
       </c>
-      <c r="AM53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN53" s="13" t="s">
-        <v>58</v>
+      <c r="AM53" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN53" s="13">
+        <v>0</v>
       </c>
       <c r="AO53" s="13">
         <v>0</v>
@@ -7549,8 +7549,8 @@
       <c r="AQ53" s="13">
         <v>0</v>
       </c>
-      <c r="AR53" s="13">
-        <v>0</v>
+      <c r="AR53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS53" s="13" t="s">
         <v>58</v>
@@ -7583,7 +7583,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>65</v>
       </c>
@@ -7645,104 +7645,104 @@
       <c r="V54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="11" t="s">
-        <v>58</v>
+      <c r="W54" s="11">
+        <v>21204</v>
       </c>
       <c r="X54" s="11">
-        <v>21204</v>
+        <v>31076</v>
       </c>
       <c r="Y54" s="11">
-        <v>31076</v>
+        <v>32846</v>
       </c>
       <c r="Z54" s="11">
-        <v>32846</v>
+        <v>24041</v>
       </c>
       <c r="AA54" s="11">
-        <v>24041</v>
+        <v>30965</v>
       </c>
       <c r="AB54" s="11">
-        <v>30965</v>
+        <v>40648</v>
       </c>
       <c r="AC54" s="11">
-        <v>40648</v>
+        <v>31753</v>
       </c>
       <c r="AD54" s="11">
-        <v>31753</v>
+        <v>22399</v>
       </c>
       <c r="AE54" s="11">
-        <v>22399</v>
+        <v>41405</v>
       </c>
       <c r="AF54" s="11">
-        <v>41405</v>
+        <v>28422</v>
       </c>
       <c r="AG54" s="11">
-        <v>28422</v>
+        <v>10852</v>
       </c>
       <c r="AH54" s="11">
-        <v>10852</v>
+        <v>29664</v>
       </c>
       <c r="AI54" s="11">
-        <v>29664</v>
+        <v>33128</v>
       </c>
       <c r="AJ54" s="11">
-        <v>33128</v>
+        <v>14165</v>
       </c>
       <c r="AK54" s="11">
-        <v>14165</v>
+        <v>16144</v>
       </c>
       <c r="AL54" s="11">
-        <v>16144</v>
+        <v>22577</v>
       </c>
       <c r="AM54" s="11">
-        <v>22577</v>
+        <v>24310</v>
       </c>
       <c r="AN54" s="11">
-        <v>24310</v>
+        <v>32021</v>
       </c>
       <c r="AO54" s="11">
-        <v>32021</v>
+        <v>39087</v>
       </c>
       <c r="AP54" s="11">
-        <v>39087</v>
+        <v>19614</v>
       </c>
       <c r="AQ54" s="11">
-        <v>19614</v>
+        <v>30057</v>
       </c>
       <c r="AR54" s="11">
-        <v>30057</v>
+        <v>20098</v>
       </c>
       <c r="AS54" s="11">
-        <v>20098</v>
+        <v>30365</v>
       </c>
       <c r="AT54" s="11">
-        <v>30365</v>
+        <v>35828</v>
       </c>
       <c r="AU54" s="11">
-        <v>35828</v>
+        <v>26832</v>
       </c>
       <c r="AV54" s="11">
-        <v>26832</v>
+        <v>33784</v>
       </c>
       <c r="AW54" s="11">
-        <v>33784</v>
+        <v>26007</v>
       </c>
       <c r="AX54" s="11">
-        <v>26007</v>
+        <v>27808</v>
       </c>
       <c r="AY54" s="11">
-        <v>27808</v>
+        <v>34030</v>
       </c>
       <c r="AZ54" s="11">
-        <v>34030</v>
+        <v>38558</v>
       </c>
       <c r="BA54" s="11">
-        <v>38558</v>
+        <v>31396</v>
       </c>
       <c r="BB54" s="11">
-        <v>31396</v>
+        <v>31910</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>66</v>
       </c>
@@ -7831,23 +7831,23 @@
       <c r="AE55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG55" s="13">
-        <v>0</v>
+      <c r="AF55" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ55" s="13">
+      <c r="AI55" s="13">
         <v>3</v>
       </c>
-      <c r="AK55" s="13" t="s">
-        <v>58</v>
+      <c r="AJ55" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK55" s="13">
+        <v>0</v>
       </c>
       <c r="AL55" s="13">
         <v>0</v>
@@ -7867,8 +7867,8 @@
       <c r="AQ55" s="13">
         <v>0</v>
       </c>
-      <c r="AR55" s="13">
-        <v>0</v>
+      <c r="AR55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS55" s="13" t="s">
         <v>58</v>
@@ -7901,7 +7901,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>67</v>
       </c>
@@ -7963,47 +7963,47 @@
       <c r="V56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="11" t="s">
-        <v>58</v>
+      <c r="W56" s="11">
+        <v>1</v>
       </c>
       <c r="X56" s="11">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="Y56" s="11">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="Z56" s="11">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AA56" s="11">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AB56" s="11">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC56" s="11">
         <v>0</v>
       </c>
       <c r="AD56" s="11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AE56" s="11">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="AF56" s="11">
-        <v>105</v>
-      </c>
-      <c r="AG56" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI56" s="11" t="s">
-        <v>58</v>
+      <c r="AI56" s="11">
+        <v>3</v>
       </c>
       <c r="AJ56" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="11">
         <v>0</v>
@@ -8026,8 +8026,8 @@
       <c r="AQ56" s="11">
         <v>0</v>
       </c>
-      <c r="AR56" s="11">
-        <v>0</v>
+      <c r="AR56" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS56" s="11" t="s">
         <v>58</v>
@@ -8060,7 +8060,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>68</v>
       </c>
@@ -8122,104 +8122,104 @@
       <c r="V57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="13" t="s">
-        <v>58</v>
+      <c r="W57" s="13">
+        <v>76</v>
       </c>
       <c r="X57" s="13">
-        <v>76</v>
+        <v>959</v>
       </c>
       <c r="Y57" s="13">
-        <v>959</v>
+        <v>6</v>
       </c>
       <c r="Z57" s="13">
+        <v>575</v>
+      </c>
+      <c r="AA57" s="13">
+        <v>11</v>
+      </c>
+      <c r="AB57" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC57" s="13">
         <v>6</v>
       </c>
-      <c r="AA57" s="13">
-        <v>575</v>
-      </c>
-      <c r="AB57" s="13">
-        <v>11</v>
-      </c>
-      <c r="AC57" s="13">
-        <v>2</v>
-      </c>
       <c r="AD57" s="13">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="AE57" s="13">
-        <v>134</v>
+        <v>1574</v>
       </c>
       <c r="AF57" s="13">
-        <v>1574</v>
+        <v>737</v>
       </c>
       <c r="AG57" s="13">
-        <v>737</v>
+        <v>339</v>
       </c>
       <c r="AH57" s="13">
-        <v>339</v>
+        <v>213</v>
       </c>
       <c r="AI57" s="13">
-        <v>213</v>
+        <v>771</v>
       </c>
       <c r="AJ57" s="13">
-        <v>771</v>
+        <v>74</v>
       </c>
       <c r="AK57" s="13">
-        <v>74</v>
+        <v>715</v>
       </c>
       <c r="AL57" s="13">
-        <v>715</v>
+        <v>572</v>
       </c>
       <c r="AM57" s="13">
-        <v>572</v>
+        <v>350</v>
       </c>
       <c r="AN57" s="13">
-        <v>350</v>
+        <v>634</v>
       </c>
       <c r="AO57" s="13">
-        <v>634</v>
+        <v>1193</v>
       </c>
       <c r="AP57" s="13">
-        <v>1193</v>
+        <v>852</v>
       </c>
       <c r="AQ57" s="13">
-        <v>852</v>
+        <v>2363</v>
       </c>
       <c r="AR57" s="13">
-        <v>2363</v>
+        <v>494</v>
       </c>
       <c r="AS57" s="13">
-        <v>494</v>
+        <v>1237</v>
       </c>
       <c r="AT57" s="13">
-        <v>1237</v>
+        <v>1684</v>
       </c>
       <c r="AU57" s="13">
-        <v>1684</v>
+        <v>918</v>
       </c>
       <c r="AV57" s="13">
-        <v>918</v>
+        <v>7</v>
       </c>
       <c r="AW57" s="13">
-        <v>7</v>
+        <v>1669</v>
       </c>
       <c r="AX57" s="13">
-        <v>1669</v>
+        <v>788</v>
       </c>
       <c r="AY57" s="13">
-        <v>788</v>
+        <v>2559</v>
       </c>
       <c r="AZ57" s="13">
-        <v>2559</v>
+        <v>1915</v>
       </c>
       <c r="BA57" s="13">
-        <v>1915</v>
+        <v>1537</v>
       </c>
       <c r="BB57" s="13">
-        <v>1537</v>
+        <v>1315</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>69</v>
       </c>
@@ -8281,17 +8281,17 @@
       <c r="V58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W58" s="11" t="s">
-        <v>58</v>
+      <c r="W58" s="11">
+        <v>79</v>
       </c>
       <c r="X58" s="11">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="Y58" s="11">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Z58" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="11">
         <v>0</v>
@@ -8303,37 +8303,37 @@
         <v>0</v>
       </c>
       <c r="AD58" s="11">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE58" s="11">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AF58" s="11">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH58" s="11">
         <v>1</v>
       </c>
-      <c r="AI58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK58" s="11" t="s">
-        <v>58</v>
+      <c r="AH58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK58" s="11">
+        <v>0</v>
       </c>
       <c r="AL58" s="11">
         <v>0</v>
       </c>
       <c r="AM58" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN58" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO58" s="11">
         <v>0</v>
@@ -8344,11 +8344,11 @@
       <c r="AQ58" s="11">
         <v>0</v>
       </c>
-      <c r="AR58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS58" s="11" t="s">
-        <v>58</v>
+      <c r="AR58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS58" s="11">
+        <v>0</v>
       </c>
       <c r="AT58" s="11">
         <v>0</v>
@@ -8356,8 +8356,8 @@
       <c r="AU58" s="11">
         <v>0</v>
       </c>
-      <c r="AV58" s="11">
-        <v>0</v>
+      <c r="AV58" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW58" s="11" t="s">
         <v>58</v>
@@ -8378,7 +8378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>70</v>
       </c>
@@ -8440,20 +8440,20 @@
       <c r="V59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="13" t="s">
-        <v>58</v>
+      <c r="W59" s="13">
+        <v>1</v>
       </c>
       <c r="X59" s="13">
-        <v>1</v>
+        <v>1487</v>
       </c>
       <c r="Y59" s="13">
-        <v>1487</v>
+        <v>233</v>
       </c>
       <c r="Z59" s="13">
-        <v>233</v>
+        <v>1603</v>
       </c>
       <c r="AA59" s="13">
-        <v>1603</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="13">
         <v>0</v>
@@ -8465,11 +8465,11 @@
         <v>0</v>
       </c>
       <c r="AE59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="13">
         <v>1405</v>
       </c>
+      <c r="AF59" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG59" s="13" t="s">
         <v>58</v>
       </c>
@@ -8503,11 +8503,11 @@
       <c r="AQ59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR59" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS59" s="13">
-        <v>0</v>
+      <c r="AR59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS59" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT59" s="13" t="s">
         <v>58</v>
@@ -8537,7 +8537,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>71</v>
       </c>
@@ -8599,35 +8599,35 @@
       <c r="V60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W60" s="11" t="s">
-        <v>58</v>
+      <c r="W60" s="11">
+        <v>2</v>
       </c>
       <c r="X60" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y60" s="11">
+        <v>7</v>
+      </c>
+      <c r="Z60" s="11">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="11">
         <v>1</v>
       </c>
-      <c r="Z60" s="11">
-        <v>7</v>
-      </c>
-      <c r="AA60" s="11">
+      <c r="AE60" s="11">
         <v>4</v>
       </c>
-      <c r="AB60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF60" s="11">
-        <v>4</v>
+      <c r="AF60" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG60" s="11" t="s">
         <v>58</v>
@@ -8635,14 +8635,14 @@
       <c r="AH60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ60" s="11">
+      <c r="AI60" s="11">
         <v>103</v>
       </c>
-      <c r="AK60" s="11" t="s">
-        <v>58</v>
+      <c r="AJ60" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK60" s="11">
+        <v>0</v>
       </c>
       <c r="AL60" s="11">
         <v>0</v>
@@ -8660,11 +8660,11 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR60" s="11">
         <v>41</v>
       </c>
+      <c r="AR60" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS60" s="11" t="s">
         <v>58</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>72</v>
       </c>
@@ -8773,89 +8773,89 @@
       <c r="AA61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB61" s="13" t="s">
-        <v>58</v>
+      <c r="AB61" s="13">
+        <v>0</v>
       </c>
       <c r="AC61" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD61" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE61" s="13">
-        <v>9</v>
-      </c>
-      <c r="AF61" s="13">
         <v>42</v>
       </c>
-      <c r="AG61" s="13" t="s">
-        <v>58</v>
+      <c r="AF61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG61" s="13">
+        <v>1</v>
       </c>
       <c r="AH61" s="13">
         <v>1</v>
       </c>
       <c r="AI61" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ61" s="13">
-        <v>8</v>
+        <v>437</v>
       </c>
       <c r="AK61" s="13">
-        <v>437</v>
+        <v>845</v>
       </c>
       <c r="AL61" s="13">
-        <v>845</v>
+        <v>888</v>
       </c>
       <c r="AM61" s="13">
-        <v>888</v>
+        <v>2036</v>
       </c>
       <c r="AN61" s="13">
-        <v>2036</v>
+        <v>1154</v>
       </c>
       <c r="AO61" s="13">
-        <v>1154</v>
+        <v>1031</v>
       </c>
       <c r="AP61" s="13">
-        <v>1031</v>
+        <v>996</v>
       </c>
       <c r="AQ61" s="13">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="AR61" s="13">
-        <v>982</v>
+        <v>450</v>
       </c>
       <c r="AS61" s="13">
-        <v>450</v>
+        <v>984</v>
       </c>
       <c r="AT61" s="13">
-        <v>984</v>
+        <v>402</v>
       </c>
       <c r="AU61" s="13">
-        <v>402</v>
+        <v>1910</v>
       </c>
       <c r="AV61" s="13">
-        <v>1910</v>
+        <v>1363</v>
       </c>
       <c r="AW61" s="13">
-        <v>1363</v>
+        <v>1269</v>
       </c>
       <c r="AX61" s="13">
-        <v>1269</v>
+        <v>1999</v>
       </c>
       <c r="AY61" s="13">
-        <v>1999</v>
+        <v>1328</v>
       </c>
       <c r="AZ61" s="13">
-        <v>1328</v>
+        <v>3917</v>
       </c>
       <c r="BA61" s="13">
-        <v>3917</v>
+        <v>4285</v>
       </c>
       <c r="BB61" s="13">
-        <v>4285</v>
+        <v>4126</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
         <v>85</v>
       </c>
@@ -8916,103 +8916,103 @@
         <v>0</v>
       </c>
       <c r="W62" s="15">
-        <v>0</v>
+        <v>26611</v>
       </c>
       <c r="X62" s="15">
-        <v>26611</v>
+        <v>40971</v>
       </c>
       <c r="Y62" s="15">
-        <v>40971</v>
+        <v>44520</v>
       </c>
       <c r="Z62" s="15">
-        <v>44520</v>
+        <v>39795</v>
       </c>
       <c r="AA62" s="15">
-        <v>39795</v>
+        <v>40393</v>
       </c>
       <c r="AB62" s="15">
-        <v>40393</v>
+        <v>57747</v>
       </c>
       <c r="AC62" s="15">
-        <v>57747</v>
+        <v>42394</v>
       </c>
       <c r="AD62" s="15">
-        <v>42394</v>
+        <v>36399</v>
       </c>
       <c r="AE62" s="15">
-        <v>36399</v>
+        <v>59445</v>
       </c>
       <c r="AF62" s="15">
-        <v>59445</v>
+        <v>37612</v>
       </c>
       <c r="AG62" s="15">
-        <v>37612</v>
+        <v>15269</v>
       </c>
       <c r="AH62" s="15">
-        <v>15269</v>
+        <v>36656</v>
       </c>
       <c r="AI62" s="15">
-        <v>36656</v>
+        <v>44430</v>
       </c>
       <c r="AJ62" s="15">
-        <v>44430</v>
+        <v>28177</v>
       </c>
       <c r="AK62" s="15">
-        <v>28177</v>
+        <v>29532</v>
       </c>
       <c r="AL62" s="15">
-        <v>29532</v>
+        <v>34448</v>
       </c>
       <c r="AM62" s="15">
-        <v>34448</v>
+        <v>43616</v>
       </c>
       <c r="AN62" s="15">
-        <v>43616</v>
+        <v>39215</v>
       </c>
       <c r="AO62" s="15">
-        <v>39215</v>
+        <v>55046</v>
       </c>
       <c r="AP62" s="15">
-        <v>55046</v>
+        <v>31426</v>
       </c>
       <c r="AQ62" s="15">
-        <v>31426</v>
+        <v>56141</v>
       </c>
       <c r="AR62" s="15">
-        <v>56141</v>
+        <v>33213</v>
       </c>
       <c r="AS62" s="15">
-        <v>33213</v>
+        <v>43502</v>
       </c>
       <c r="AT62" s="15">
-        <v>43502</v>
+        <v>58624</v>
       </c>
       <c r="AU62" s="15">
-        <v>58624</v>
+        <v>43490</v>
       </c>
       <c r="AV62" s="15">
-        <v>43490</v>
+        <v>50146</v>
       </c>
       <c r="AW62" s="15">
-        <v>50146</v>
+        <v>50939</v>
       </c>
       <c r="AX62" s="15">
-        <v>50939</v>
+        <v>42749</v>
       </c>
       <c r="AY62" s="15">
-        <v>42749</v>
+        <v>52782</v>
       </c>
       <c r="AZ62" s="15">
-        <v>52782</v>
+        <v>64960</v>
       </c>
       <c r="BA62" s="15">
-        <v>64960</v>
+        <v>51917</v>
       </c>
       <c r="BB62" s="15">
-        <v>51917</v>
+        <v>60452</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>86</v>
       </c>
@@ -9069,7 +9069,7 @@
       <c r="BA63" s="9"/>
       <c r="BB63" s="9"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>59</v>
       </c>
@@ -9158,11 +9158,11 @@
       <c r="AE64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG64" s="11">
-        <v>0</v>
+      <c r="AF64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH64" s="11" t="s">
         <v>58</v>
@@ -9228,7 +9228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>62</v>
       </c>
@@ -9317,11 +9317,11 @@
       <c r="AE65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG65" s="13">
-        <v>0</v>
+      <c r="AF65" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH65" s="13" t="s">
         <v>58</v>
@@ -9387,7 +9387,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>63</v>
       </c>
@@ -9476,11 +9476,11 @@
       <c r="AE66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG66" s="11">
-        <v>0</v>
+      <c r="AF66" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH66" s="11" t="s">
         <v>58</v>
@@ -9546,7 +9546,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>65</v>
       </c>
@@ -9635,11 +9635,11 @@
       <c r="AE67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF67" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG67" s="13">
-        <v>0</v>
+      <c r="AF67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH67" s="13" t="s">
         <v>58</v>
@@ -9705,7 +9705,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>66</v>
       </c>
@@ -9794,11 +9794,11 @@
       <c r="AE68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG68" s="11">
-        <v>0</v>
+      <c r="AF68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH68" s="11" t="s">
         <v>58</v>
@@ -9864,7 +9864,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>67</v>
       </c>
@@ -9953,11 +9953,11 @@
       <c r="AE69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG69" s="13">
-        <v>0</v>
+      <c r="AF69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH69" s="13" t="s">
         <v>58</v>
@@ -9974,12 +9974,12 @@
       <c r="AL69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN69" s="13">
+      <c r="AM69" s="13">
         <v>-1</v>
       </c>
+      <c r="AN69" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO69" s="13" t="s">
         <v>58</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>68</v>
       </c>
@@ -10112,11 +10112,11 @@
       <c r="AE70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG70" s="11">
-        <v>0</v>
+      <c r="AF70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH70" s="11" t="s">
         <v>58</v>
@@ -10182,7 +10182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>69</v>
       </c>
@@ -10271,11 +10271,11 @@
       <c r="AE71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG71" s="13">
-        <v>0</v>
+      <c r="AF71" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH71" s="13" t="s">
         <v>58</v>
@@ -10341,7 +10341,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>75</v>
       </c>
@@ -10430,11 +10430,11 @@
       <c r="AE72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF72" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG72" s="11">
-        <v>0</v>
+      <c r="AF72" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH72" s="11" t="s">
         <v>58</v>
@@ -10500,7 +10500,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>76</v>
       </c>
@@ -10622,17 +10622,17 @@
       <c r="AP73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR73" s="13">
+      <c r="AQ73" s="13">
         <v>342</v>
       </c>
+      <c r="AR73" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT73" s="13" t="s">
-        <v>58</v>
+      <c r="AT73" s="13">
+        <v>0</v>
       </c>
       <c r="AU73" s="13">
         <v>0</v>
@@ -10641,25 +10641,25 @@
         <v>0</v>
       </c>
       <c r="AW73" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX73" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AY73" s="13">
         <v>0</v>
       </c>
       <c r="AZ73" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA73" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BB73" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>77</v>
       </c>
@@ -10781,44 +10781,44 @@
       <c r="AP74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR74" s="11">
+      <c r="AQ74" s="11">
         <v>3361</v>
       </c>
-      <c r="AS74" s="11" t="s">
-        <v>58</v>
+      <c r="AR74" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS74" s="11">
+        <v>96</v>
       </c>
       <c r="AT74" s="11">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="AU74" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV74" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW74" s="11">
         <v>288</v>
       </c>
-      <c r="AV74" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW74" s="11">
-        <v>0</v>
-      </c>
       <c r="AX74" s="11">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="AY74" s="11">
         <v>0</v>
       </c>
       <c r="AZ74" s="11">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="BA74" s="11">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="BB74" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="16" t="s">
         <v>87</v>
       </c>
@@ -10927,10 +10927,10 @@
         <v>0</v>
       </c>
       <c r="AM75" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN75" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO75" s="17">
         <v>0</v>
@@ -10939,43 +10939,43 @@
         <v>0</v>
       </c>
       <c r="AQ75" s="17">
-        <v>0</v>
+        <v>3703</v>
       </c>
       <c r="AR75" s="17">
-        <v>3703</v>
+        <v>0</v>
       </c>
       <c r="AS75" s="17">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="AT75" s="17">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="AU75" s="17">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="AV75" s="17">
         <v>0</v>
       </c>
       <c r="AW75" s="17">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="AX75" s="17">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="AY75" s="17">
         <v>0</v>
       </c>
       <c r="AZ75" s="17">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="BA75" s="17">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="BB75" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>80</v>
       </c>
@@ -11032,7 +11032,7 @@
       <c r="BA76" s="19"/>
       <c r="BB76" s="19"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
         <v>81</v>
       </c>
@@ -11092,8 +11092,8 @@
       <c r="V77" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W77" s="15" t="s">
-        <v>58</v>
+      <c r="W77" s="15">
+        <v>0</v>
       </c>
       <c r="X77" s="15">
         <v>0</v>
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>88</v>
       </c>
@@ -11246,7 +11246,7 @@
       <c r="BA78" s="9"/>
       <c r="BB78" s="9"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>56</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>65</v>
       </c>
@@ -11512,27 +11512,27 @@
       <c r="AK80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM80" s="13">
+      <c r="AL80" s="13">
         <v>-5</v>
       </c>
-      <c r="AN80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO80" s="13">
-        <v>0</v>
+      <c r="AM80" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN80" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR80" s="13">
+      <c r="AQ80" s="13">
         <v>10</v>
       </c>
+      <c r="AR80" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS80" s="13" t="s">
         <v>58</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>66</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>67</v>
       </c>
@@ -11845,12 +11845,12 @@
       <c r="AP82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR82" s="13">
+      <c r="AQ82" s="13">
         <v>4</v>
       </c>
+      <c r="AR82" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS82" s="13" t="s">
         <v>58</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>68</v>
       </c>
@@ -12004,12 +12004,12 @@
       <c r="AP83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR83" s="11">
+      <c r="AQ83" s="11">
         <v>1</v>
       </c>
+      <c r="AR83" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS83" s="11" t="s">
         <v>58</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>69</v>
       </c>
@@ -12121,17 +12121,17 @@
       <c r="AB84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC84" s="13" t="s">
-        <v>58</v>
+      <c r="AC84" s="13">
+        <v>-66</v>
       </c>
       <c r="AD84" s="13">
-        <v>-66</v>
+        <v>0</v>
       </c>
       <c r="AE84" s="13">
         <v>0</v>
       </c>
-      <c r="AF84" s="13">
-        <v>0</v>
+      <c r="AF84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG84" s="13" t="s">
         <v>58</v>
@@ -12154,21 +12154,21 @@
       <c r="AM84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO84" s="13">
+      <c r="AN84" s="13">
         <v>-2</v>
       </c>
+      <c r="AO84" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AP84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR84" s="13">
+      <c r="AQ84" s="13">
         <v>2</v>
       </c>
+      <c r="AR84" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS84" s="13" t="s">
         <v>58</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>70</v>
       </c>
@@ -12262,8 +12262,8 @@
       <c r="V85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W85" s="11" t="s">
-        <v>58</v>
+      <c r="W85" s="11">
+        <v>0</v>
       </c>
       <c r="X85" s="11">
         <v>0</v>
@@ -12275,22 +12275,22 @@
         <v>0</v>
       </c>
       <c r="AA85" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB85" s="11">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AC85" s="11">
-        <v>-3</v>
+        <v>-28</v>
       </c>
       <c r="AD85" s="11">
-        <v>-28</v>
+        <v>-341</v>
       </c>
       <c r="AE85" s="11">
-        <v>-341</v>
-      </c>
-      <c r="AF85" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF85" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG85" s="11" t="s">
         <v>58</v>
@@ -12322,12 +12322,12 @@
       <c r="AP85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR85" s="11">
+      <c r="AQ85" s="11">
         <v>2</v>
       </c>
+      <c r="AR85" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS85" s="11" t="s">
         <v>58</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>71</v>
       </c>
@@ -12445,12 +12445,12 @@
       <c r="AD86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF86" s="13">
+      <c r="AE86" s="13">
         <v>-6</v>
       </c>
+      <c r="AF86" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG86" s="13" t="s">
         <v>58</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
         <v>89</v>
       </c>
@@ -12578,8 +12578,8 @@
       <c r="V87" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W87" s="15" t="s">
-        <v>58</v>
+      <c r="W87" s="15">
+        <v>0</v>
       </c>
       <c r="X87" s="15">
         <v>0</v>
@@ -12591,22 +12591,22 @@
         <v>0</v>
       </c>
       <c r="AA87" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB87" s="15">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AC87" s="15">
-        <v>-3</v>
+        <v>-94</v>
       </c>
       <c r="AD87" s="15">
-        <v>-94</v>
+        <v>-341</v>
       </c>
       <c r="AE87" s="15">
-        <v>-341</v>
+        <v>-6</v>
       </c>
       <c r="AF87" s="15">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AG87" s="15">
         <v>0</v>
@@ -12624,25 +12624,25 @@
         <v>0</v>
       </c>
       <c r="AL87" s="15">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AM87" s="15">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AN87" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO87" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP87" s="15">
         <v>0</v>
       </c>
       <c r="AQ87" s="15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AR87" s="15">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AS87" s="15">
         <v>0</v>
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="16" t="s">
         <v>82</v>
       </c>
@@ -12736,103 +12736,103 @@
         <v>0</v>
       </c>
       <c r="W88" s="17">
-        <v>0</v>
+        <v>26611</v>
       </c>
       <c r="X88" s="17">
-        <v>26611</v>
+        <v>40971</v>
       </c>
       <c r="Y88" s="17">
-        <v>40971</v>
+        <v>44520</v>
       </c>
       <c r="Z88" s="17">
-        <v>44520</v>
+        <v>39795</v>
       </c>
       <c r="AA88" s="17">
-        <v>39795</v>
+        <v>40394</v>
       </c>
       <c r="AB88" s="17">
-        <v>40394</v>
+        <v>57744</v>
       </c>
       <c r="AC88" s="17">
-        <v>57744</v>
+        <v>42300</v>
       </c>
       <c r="AD88" s="17">
-        <v>42300</v>
+        <v>36058</v>
       </c>
       <c r="AE88" s="17">
-        <v>36058</v>
+        <v>59439</v>
       </c>
       <c r="AF88" s="17">
-        <v>59439</v>
+        <v>37612</v>
       </c>
       <c r="AG88" s="17">
-        <v>37612</v>
+        <v>15269</v>
       </c>
       <c r="AH88" s="17">
-        <v>15269</v>
+        <v>36656</v>
       </c>
       <c r="AI88" s="17">
-        <v>36656</v>
+        <v>44430</v>
       </c>
       <c r="AJ88" s="17">
-        <v>44430</v>
+        <v>28177</v>
       </c>
       <c r="AK88" s="17">
-        <v>28177</v>
+        <v>29532</v>
       </c>
       <c r="AL88" s="17">
-        <v>29532</v>
+        <v>34443</v>
       </c>
       <c r="AM88" s="17">
-        <v>34443</v>
+        <v>43615</v>
       </c>
       <c r="AN88" s="17">
-        <v>43615</v>
+        <v>39213</v>
       </c>
       <c r="AO88" s="17">
-        <v>39213</v>
+        <v>55046</v>
       </c>
       <c r="AP88" s="17">
-        <v>55046</v>
+        <v>31426</v>
       </c>
       <c r="AQ88" s="17">
-        <v>31426</v>
+        <v>59863</v>
       </c>
       <c r="AR88" s="17">
-        <v>59863</v>
+        <v>33213</v>
       </c>
       <c r="AS88" s="17">
-        <v>33213</v>
+        <v>43598</v>
       </c>
       <c r="AT88" s="17">
-        <v>43598</v>
+        <v>58912</v>
       </c>
       <c r="AU88" s="17">
-        <v>58912</v>
+        <v>43490</v>
       </c>
       <c r="AV88" s="17">
-        <v>43490</v>
+        <v>50146</v>
       </c>
       <c r="AW88" s="17">
-        <v>50146</v>
+        <v>51237</v>
       </c>
       <c r="AX88" s="17">
-        <v>51237</v>
+        <v>42749</v>
       </c>
       <c r="AY88" s="17">
-        <v>42749</v>
+        <v>52782</v>
       </c>
       <c r="AZ88" s="17">
-        <v>52782</v>
+        <v>65577</v>
       </c>
       <c r="BA88" s="17">
-        <v>65577</v>
+        <v>51917</v>
       </c>
       <c r="BB88" s="17">
-        <v>51917</v>
+        <v>60452</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -12887,7 +12887,7 @@
       <c r="BA89" s="1"/>
       <c r="BB89" s="1"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -12942,7 +12942,7 @@
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -12997,7 +12997,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
     </row>
-    <row r="92" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
         <v>90</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -13209,7 +13209,7 @@
       <c r="BA93" s="1"/>
       <c r="BB93" s="1"/>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
         <v>91</v>
       </c>
@@ -13266,7 +13266,7 @@
       <c r="BA94" s="9"/>
       <c r="BB94" s="9"/>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>56</v>
       </c>
@@ -13355,8 +13355,8 @@
       <c r="AE95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF95" s="11" t="s">
-        <v>58</v>
+      <c r="AF95" s="11">
+        <v>0</v>
       </c>
       <c r="AG95" s="11">
         <v>0</v>
@@ -13389,43 +13389,43 @@
         <v>0</v>
       </c>
       <c r="AQ95" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR95" s="11">
         <v>39166</v>
       </c>
-      <c r="AS95" s="11" t="s">
-        <v>58</v>
+      <c r="AR95" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS95" s="11">
+        <v>0</v>
       </c>
       <c r="AT95" s="11">
         <v>0</v>
       </c>
       <c r="AU95" s="11">
-        <v>0</v>
+        <v>5424</v>
       </c>
       <c r="AV95" s="11">
-        <v>5424</v>
+        <v>640097</v>
       </c>
       <c r="AW95" s="11">
-        <v>640097</v>
+        <v>9303</v>
       </c>
       <c r="AX95" s="11">
-        <v>9303</v>
+        <v>0</v>
       </c>
       <c r="AY95" s="11">
-        <v>0</v>
+        <v>11131</v>
       </c>
       <c r="AZ95" s="11">
-        <v>11131</v>
+        <v>5877493</v>
       </c>
       <c r="BA95" s="11">
-        <v>5877493</v>
+        <v>3921974</v>
       </c>
       <c r="BB95" s="11">
-        <v>3921974</v>
+        <v>2089753</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>59</v>
       </c>
@@ -13487,104 +13487,104 @@
       <c r="V96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W96" s="13" t="s">
-        <v>58</v>
+      <c r="W96" s="13">
+        <v>1414831</v>
       </c>
       <c r="X96" s="13">
-        <v>1414831</v>
+        <v>3614432</v>
       </c>
       <c r="Y96" s="13">
-        <v>3614432</v>
+        <v>3223827</v>
       </c>
       <c r="Z96" s="13">
-        <v>3223827</v>
+        <v>4758520</v>
       </c>
       <c r="AA96" s="13">
-        <v>4758520</v>
+        <v>5192019</v>
       </c>
       <c r="AB96" s="13">
-        <v>5192019</v>
+        <v>7805244</v>
       </c>
       <c r="AC96" s="13">
-        <v>7805244</v>
+        <v>4347141</v>
       </c>
       <c r="AD96" s="13">
-        <v>4347141</v>
+        <v>4335298</v>
       </c>
       <c r="AE96" s="13">
-        <v>4335298</v>
+        <v>7349386</v>
       </c>
       <c r="AF96" s="13">
-        <v>7349386</v>
+        <v>4122659</v>
       </c>
       <c r="AG96" s="13">
-        <v>4122659</v>
+        <v>1235467</v>
       </c>
       <c r="AH96" s="13">
-        <v>1235467</v>
+        <v>5088212</v>
       </c>
       <c r="AI96" s="13">
-        <v>5088212</v>
+        <v>3859046</v>
       </c>
       <c r="AJ96" s="13">
-        <v>3859046</v>
+        <v>6736323</v>
       </c>
       <c r="AK96" s="13">
-        <v>6736323</v>
+        <v>10785206</v>
       </c>
       <c r="AL96" s="13">
-        <v>10785206</v>
+        <v>8659663</v>
       </c>
       <c r="AM96" s="13">
-        <v>8659663</v>
+        <v>7206705</v>
       </c>
       <c r="AN96" s="13">
-        <v>7206705</v>
+        <v>3968112</v>
       </c>
       <c r="AO96" s="13">
-        <v>3968112</v>
+        <v>5967961</v>
       </c>
       <c r="AP96" s="13">
-        <v>5967961</v>
+        <v>7002939</v>
       </c>
       <c r="AQ96" s="13">
-        <v>7002939</v>
+        <v>5314794</v>
       </c>
       <c r="AR96" s="13">
-        <v>5314794</v>
+        <v>6361849</v>
       </c>
       <c r="AS96" s="13">
-        <v>6361849</v>
+        <v>2944609</v>
       </c>
       <c r="AT96" s="13">
-        <v>2944609</v>
+        <v>17455541</v>
       </c>
       <c r="AU96" s="13">
-        <v>17455541</v>
+        <v>8690160</v>
       </c>
       <c r="AV96" s="13">
-        <v>8690160</v>
+        <v>12737412</v>
       </c>
       <c r="AW96" s="13">
-        <v>12737412</v>
+        <v>25375282</v>
       </c>
       <c r="AX96" s="13">
-        <v>25375282</v>
+        <v>8275852</v>
       </c>
       <c r="AY96" s="13">
-        <v>8275852</v>
+        <v>10950366</v>
       </c>
       <c r="AZ96" s="13">
-        <v>10950366</v>
+        <v>15604672</v>
       </c>
       <c r="BA96" s="13">
-        <v>15604672</v>
+        <v>11075399</v>
       </c>
       <c r="BB96" s="13">
-        <v>11075399</v>
+        <v>16896579</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>60</v>
       </c>
@@ -13673,8 +13673,8 @@
       <c r="AE97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF97" s="11" t="s">
-        <v>58</v>
+      <c r="AF97" s="11">
+        <v>0</v>
       </c>
       <c r="AG97" s="11">
         <v>0</v>
@@ -13707,43 +13707,43 @@
         <v>0</v>
       </c>
       <c r="AQ97" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR97" s="11">
         <v>371565973</v>
       </c>
+      <c r="AR97" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT97" s="11" t="s">
-        <v>58</v>
+      <c r="AT97" s="11">
+        <v>62203446</v>
       </c>
       <c r="AU97" s="11">
-        <v>62203446</v>
+        <v>0</v>
       </c>
       <c r="AV97" s="11">
         <v>0</v>
       </c>
       <c r="AW97" s="11">
-        <v>0</v>
+        <v>75745553</v>
       </c>
       <c r="AX97" s="11">
-        <v>75745553</v>
+        <v>20528278</v>
       </c>
       <c r="AY97" s="11">
         <v>20528278</v>
       </c>
       <c r="AZ97" s="11">
-        <v>20528278</v>
+        <v>132803541</v>
       </c>
       <c r="BA97" s="11">
-        <v>132803541</v>
+        <v>0</v>
       </c>
       <c r="BB97" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>62</v>
       </c>
@@ -13805,104 +13805,104 @@
       <c r="V98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W98" s="13" t="s">
-        <v>58</v>
+      <c r="W98" s="13">
+        <v>49626</v>
       </c>
       <c r="X98" s="13">
-        <v>49626</v>
+        <v>10717</v>
       </c>
       <c r="Y98" s="13">
-        <v>10717</v>
+        <v>13485</v>
       </c>
       <c r="Z98" s="13">
-        <v>13485</v>
+        <v>5418806</v>
       </c>
       <c r="AA98" s="13">
-        <v>5418806</v>
+        <v>1560049</v>
       </c>
       <c r="AB98" s="13">
-        <v>1560049</v>
+        <v>2158561</v>
       </c>
       <c r="AC98" s="13">
-        <v>2158561</v>
+        <v>620535</v>
       </c>
       <c r="AD98" s="13">
-        <v>620535</v>
+        <v>2606651</v>
       </c>
       <c r="AE98" s="13">
-        <v>2606651</v>
+        <v>2776171</v>
       </c>
       <c r="AF98" s="13">
-        <v>2776171</v>
+        <v>501092</v>
       </c>
       <c r="AG98" s="13">
-        <v>501092</v>
+        <v>110420</v>
       </c>
       <c r="AH98" s="13">
-        <v>110420</v>
+        <v>1466792</v>
       </c>
       <c r="AI98" s="13">
-        <v>1466792</v>
+        <v>2477262</v>
       </c>
       <c r="AJ98" s="13">
-        <v>2477262</v>
+        <v>7153259</v>
       </c>
       <c r="AK98" s="13">
-        <v>7153259</v>
+        <v>4377077</v>
       </c>
       <c r="AL98" s="13">
-        <v>4377077</v>
+        <v>159774</v>
       </c>
       <c r="AM98" s="13">
-        <v>159774</v>
+        <v>11266994</v>
       </c>
       <c r="AN98" s="13">
-        <v>11266994</v>
+        <v>3680110</v>
       </c>
       <c r="AO98" s="13">
-        <v>3680110</v>
+        <v>5349617</v>
       </c>
       <c r="AP98" s="13">
-        <v>5349617</v>
+        <v>2107845</v>
       </c>
       <c r="AQ98" s="13">
-        <v>2107845</v>
+        <v>7503475</v>
       </c>
       <c r="AR98" s="13">
-        <v>7503475</v>
+        <v>11735531</v>
       </c>
       <c r="AS98" s="13">
-        <v>11735531</v>
+        <v>8584011</v>
       </c>
       <c r="AT98" s="13">
-        <v>8584011</v>
+        <v>7757787</v>
       </c>
       <c r="AU98" s="13">
-        <v>7757787</v>
+        <v>5185915</v>
       </c>
       <c r="AV98" s="13">
-        <v>5185915</v>
+        <v>3711355</v>
       </c>
       <c r="AW98" s="13">
-        <v>3711355</v>
+        <v>2777515</v>
       </c>
       <c r="AX98" s="13">
-        <v>2777515</v>
+        <v>4018144</v>
       </c>
       <c r="AY98" s="13">
-        <v>4018144</v>
+        <v>5842988</v>
       </c>
       <c r="AZ98" s="13">
-        <v>5842988</v>
+        <v>6223005</v>
       </c>
       <c r="BA98" s="13">
-        <v>6223005</v>
+        <v>5302711</v>
       </c>
       <c r="BB98" s="13">
-        <v>5302711</v>
+        <v>4950639</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>63</v>
       </c>
@@ -13964,104 +13964,104 @@
       <c r="V99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W99" s="11" t="s">
-        <v>58</v>
+      <c r="W99" s="11">
+        <v>1510742</v>
       </c>
       <c r="X99" s="11">
-        <v>1510742</v>
+        <v>1952261</v>
       </c>
       <c r="Y99" s="11">
-        <v>1952261</v>
+        <v>10485244</v>
       </c>
       <c r="Z99" s="11">
-        <v>10485244</v>
+        <v>4583063</v>
       </c>
       <c r="AA99" s="11">
-        <v>4583063</v>
+        <v>2602289</v>
       </c>
       <c r="AB99" s="11">
-        <v>2602289</v>
+        <v>12832766</v>
       </c>
       <c r="AC99" s="11">
-        <v>12832766</v>
+        <v>8896627</v>
       </c>
       <c r="AD99" s="11">
-        <v>8896627</v>
+        <v>12502823</v>
       </c>
       <c r="AE99" s="11">
-        <v>12502823</v>
+        <v>12429693</v>
       </c>
       <c r="AF99" s="11">
-        <v>12429693</v>
+        <v>6341784</v>
       </c>
       <c r="AG99" s="11">
-        <v>6341784</v>
+        <v>6755547</v>
       </c>
       <c r="AH99" s="11">
-        <v>6755547</v>
+        <v>3688711</v>
       </c>
       <c r="AI99" s="11">
-        <v>3688711</v>
+        <v>12979540</v>
       </c>
       <c r="AJ99" s="11">
-        <v>12979540</v>
+        <v>8728016</v>
       </c>
       <c r="AK99" s="11">
-        <v>8728016</v>
+        <v>2802330</v>
       </c>
       <c r="AL99" s="11">
-        <v>2802330</v>
+        <v>12987821</v>
       </c>
       <c r="AM99" s="11">
-        <v>12987821</v>
+        <v>10724953</v>
       </c>
       <c r="AN99" s="11">
-        <v>10724953</v>
+        <v>1903576</v>
       </c>
       <c r="AO99" s="11">
-        <v>1903576</v>
+        <v>21464173</v>
       </c>
       <c r="AP99" s="11">
-        <v>21464173</v>
+        <v>14295050</v>
       </c>
       <c r="AQ99" s="11">
-        <v>14295050</v>
+        <v>40303600</v>
       </c>
       <c r="AR99" s="11">
-        <v>40303600</v>
+        <v>7792710</v>
       </c>
       <c r="AS99" s="11">
-        <v>7792710</v>
+        <v>16473585</v>
       </c>
       <c r="AT99" s="11">
-        <v>16473585</v>
+        <v>26676848</v>
       </c>
       <c r="AU99" s="11">
-        <v>26676848</v>
+        <v>20799630</v>
       </c>
       <c r="AV99" s="11">
-        <v>20799630</v>
+        <v>18100792</v>
       </c>
       <c r="AW99" s="11">
-        <v>18100792</v>
+        <v>26715140</v>
       </c>
       <c r="AX99" s="11">
-        <v>26715140</v>
+        <v>19371331</v>
       </c>
       <c r="AY99" s="11">
-        <v>19371331</v>
+        <v>21155971</v>
       </c>
       <c r="AZ99" s="11">
-        <v>21155971</v>
+        <v>28057131</v>
       </c>
       <c r="BA99" s="11">
-        <v>28057131</v>
+        <v>18405793</v>
       </c>
       <c r="BB99" s="11">
-        <v>18405793</v>
+        <v>43811429</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>64</v>
       </c>
@@ -14123,8 +14123,8 @@
       <c r="V100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W100" s="13" t="s">
-        <v>58</v>
+      <c r="W100" s="13">
+        <v>0</v>
       </c>
       <c r="X100" s="13">
         <v>0</v>
@@ -14186,8 +14186,8 @@
       <c r="AQ100" s="13">
         <v>0</v>
       </c>
-      <c r="AR100" s="13">
-        <v>0</v>
+      <c r="AR100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS100" s="13" t="s">
         <v>58</v>
@@ -14220,7 +14220,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>65</v>
       </c>
@@ -14282,104 +14282,104 @@
       <c r="V101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W101" s="11" t="s">
-        <v>58</v>
+      <c r="W101" s="11">
+        <v>12640346</v>
       </c>
       <c r="X101" s="11">
-        <v>12640346</v>
+        <v>23843179</v>
       </c>
       <c r="Y101" s="11">
-        <v>23843179</v>
+        <v>25664002</v>
       </c>
       <c r="Z101" s="11">
-        <v>25664002</v>
+        <v>19788787</v>
       </c>
       <c r="AA101" s="11">
-        <v>19788787</v>
+        <v>28347959</v>
       </c>
       <c r="AB101" s="11">
-        <v>28347959</v>
+        <v>43543841</v>
       </c>
       <c r="AC101" s="11">
-        <v>43543841</v>
+        <v>35475614</v>
       </c>
       <c r="AD101" s="11">
-        <v>35475614</v>
+        <v>26129146</v>
       </c>
       <c r="AE101" s="11">
-        <v>26129146</v>
+        <v>44828744</v>
       </c>
       <c r="AF101" s="11">
-        <v>44828744</v>
+        <v>32260714</v>
       </c>
       <c r="AG101" s="11">
-        <v>32260714</v>
+        <v>12741671</v>
       </c>
       <c r="AH101" s="11">
-        <v>12741671</v>
+        <v>37156142</v>
       </c>
       <c r="AI101" s="11">
-        <v>37156142</v>
+        <v>39270196</v>
       </c>
       <c r="AJ101" s="11">
-        <v>39270196</v>
+        <v>21258580</v>
       </c>
       <c r="AK101" s="11">
-        <v>21258580</v>
+        <v>21724599</v>
       </c>
       <c r="AL101" s="11">
-        <v>21724599</v>
+        <v>28835313</v>
       </c>
       <c r="AM101" s="11">
-        <v>28835313</v>
+        <v>33884033</v>
       </c>
       <c r="AN101" s="11">
-        <v>33884033</v>
+        <v>43187909</v>
       </c>
       <c r="AO101" s="11">
-        <v>43187909</v>
+        <v>55079264</v>
       </c>
       <c r="AP101" s="11">
-        <v>55079264</v>
+        <v>29962151</v>
       </c>
       <c r="AQ101" s="11">
-        <v>29962151</v>
+        <v>45163677</v>
       </c>
       <c r="AR101" s="11">
-        <v>45163677</v>
+        <v>32695965</v>
       </c>
       <c r="AS101" s="11">
-        <v>32695965</v>
+        <v>52453197</v>
       </c>
       <c r="AT101" s="11">
-        <v>52453197</v>
+        <v>59332738</v>
       </c>
       <c r="AU101" s="11">
-        <v>59332738</v>
+        <v>46547931</v>
       </c>
       <c r="AV101" s="11">
-        <v>46547931</v>
+        <v>55013001</v>
       </c>
       <c r="AW101" s="11">
-        <v>55013001</v>
+        <v>43512942</v>
       </c>
       <c r="AX101" s="11">
-        <v>43512942</v>
+        <v>46038971</v>
       </c>
       <c r="AY101" s="11">
-        <v>46038971</v>
+        <v>57865352</v>
       </c>
       <c r="AZ101" s="11">
-        <v>57865352</v>
+        <v>66651476</v>
       </c>
       <c r="BA101" s="11">
-        <v>66651476</v>
+        <v>63898587</v>
       </c>
       <c r="BB101" s="11">
-        <v>63898587</v>
+        <v>61392755</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
         <v>66</v>
       </c>
@@ -14468,8 +14468,8 @@
       <c r="AE102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF102" s="13" t="s">
-        <v>58</v>
+      <c r="AF102" s="13">
+        <v>0</v>
       </c>
       <c r="AG102" s="13">
         <v>0</v>
@@ -14478,10 +14478,10 @@
         <v>0</v>
       </c>
       <c r="AI102" s="13">
-        <v>0</v>
+        <v>3240</v>
       </c>
       <c r="AJ102" s="13">
-        <v>3240</v>
+        <v>0</v>
       </c>
       <c r="AK102" s="13">
         <v>0</v>
@@ -14504,8 +14504,8 @@
       <c r="AQ102" s="13">
         <v>0</v>
       </c>
-      <c r="AR102" s="13">
-        <v>0</v>
+      <c r="AR102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS102" s="13" t="s">
         <v>58</v>
@@ -14538,7 +14538,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
         <v>67</v>
       </c>
@@ -14600,35 +14600,35 @@
       <c r="V103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W103" s="11" t="s">
-        <v>58</v>
+      <c r="W103" s="11">
+        <v>1871</v>
       </c>
       <c r="X103" s="11">
-        <v>1871</v>
+        <v>29691</v>
       </c>
       <c r="Y103" s="11">
-        <v>29691</v>
+        <v>19802</v>
       </c>
       <c r="Z103" s="11">
-        <v>19802</v>
+        <v>14264</v>
       </c>
       <c r="AA103" s="11">
-        <v>14264</v>
+        <v>4203</v>
       </c>
       <c r="AB103" s="11">
-        <v>4203</v>
+        <v>0</v>
       </c>
       <c r="AC103" s="11">
         <v>0</v>
       </c>
       <c r="AD103" s="11">
-        <v>0</v>
+        <v>24725</v>
       </c>
       <c r="AE103" s="11">
-        <v>24725</v>
+        <v>42637</v>
       </c>
       <c r="AF103" s="11">
-        <v>42637</v>
+        <v>0</v>
       </c>
       <c r="AG103" s="11">
         <v>0</v>
@@ -14637,10 +14637,10 @@
         <v>0</v>
       </c>
       <c r="AI103" s="11">
-        <v>0</v>
+        <v>8418</v>
       </c>
       <c r="AJ103" s="11">
-        <v>8418</v>
+        <v>0</v>
       </c>
       <c r="AK103" s="11">
         <v>0</v>
@@ -14663,8 +14663,8 @@
       <c r="AQ103" s="11">
         <v>0</v>
       </c>
-      <c r="AR103" s="11">
-        <v>0</v>
+      <c r="AR103" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS103" s="11" t="s">
         <v>58</v>
@@ -14697,7 +14697,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
         <v>68</v>
       </c>
@@ -14759,104 +14759,104 @@
       <c r="V104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W104" s="13" t="s">
-        <v>58</v>
+      <c r="W104" s="13">
+        <v>122769</v>
       </c>
       <c r="X104" s="13">
-        <v>122769</v>
+        <v>1682313</v>
       </c>
       <c r="Y104" s="13">
-        <v>1682313</v>
+        <v>9051</v>
       </c>
       <c r="Z104" s="13">
-        <v>9051</v>
+        <v>995618</v>
       </c>
       <c r="AA104" s="13">
-        <v>995618</v>
+        <v>17045</v>
       </c>
       <c r="AB104" s="13">
-        <v>17045</v>
+        <v>2704</v>
       </c>
       <c r="AC104" s="13">
-        <v>2704</v>
+        <v>9845</v>
       </c>
       <c r="AD104" s="13">
-        <v>9845</v>
+        <v>206393</v>
       </c>
       <c r="AE104" s="13">
-        <v>206393</v>
+        <v>3012339</v>
       </c>
       <c r="AF104" s="13">
-        <v>3012339</v>
+        <v>1505445</v>
       </c>
       <c r="AG104" s="13">
-        <v>1505445</v>
+        <v>634075</v>
       </c>
       <c r="AH104" s="13">
-        <v>634075</v>
+        <v>347289</v>
       </c>
       <c r="AI104" s="13">
-        <v>347289</v>
+        <v>1562852</v>
       </c>
       <c r="AJ104" s="13">
-        <v>1562852</v>
+        <v>120029</v>
       </c>
       <c r="AK104" s="13">
-        <v>120029</v>
+        <v>1484781</v>
       </c>
       <c r="AL104" s="13">
-        <v>1484781</v>
+        <v>1389004</v>
       </c>
       <c r="AM104" s="13">
-        <v>1389004</v>
+        <v>1968503</v>
       </c>
       <c r="AN104" s="13">
-        <v>1968503</v>
+        <v>3708045</v>
       </c>
       <c r="AO104" s="13">
-        <v>3708045</v>
+        <v>6875501</v>
       </c>
       <c r="AP104" s="13">
-        <v>6875501</v>
+        <v>4829965</v>
       </c>
       <c r="AQ104" s="13">
-        <v>4829965</v>
+        <v>13410049</v>
       </c>
       <c r="AR104" s="13">
-        <v>13410049</v>
+        <v>2708876</v>
       </c>
       <c r="AS104" s="13">
-        <v>2708876</v>
+        <v>7169210</v>
       </c>
       <c r="AT104" s="13">
-        <v>7169210</v>
+        <v>9301311</v>
       </c>
       <c r="AU104" s="13">
-        <v>9301311</v>
+        <v>5192323</v>
       </c>
       <c r="AV104" s="13">
-        <v>5192323</v>
+        <v>48498</v>
       </c>
       <c r="AW104" s="13">
-        <v>48498</v>
+        <v>12323392</v>
       </c>
       <c r="AX104" s="13">
-        <v>12323392</v>
+        <v>4972269</v>
       </c>
       <c r="AY104" s="13">
-        <v>4972269</v>
+        <v>17085287</v>
       </c>
       <c r="AZ104" s="13">
-        <v>17085287</v>
+        <v>11204642</v>
       </c>
       <c r="BA104" s="13">
-        <v>11204642</v>
+        <v>9724066</v>
       </c>
       <c r="BB104" s="13">
-        <v>9724066</v>
+        <v>9760103</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>69</v>
       </c>
@@ -14918,17 +14918,17 @@
       <c r="V105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W105" s="11" t="s">
-        <v>58</v>
+      <c r="W105" s="11">
+        <v>34805</v>
       </c>
       <c r="X105" s="11">
-        <v>34805</v>
+        <v>7318</v>
       </c>
       <c r="Y105" s="11">
-        <v>7318</v>
+        <v>1277</v>
       </c>
       <c r="Z105" s="11">
-        <v>1277</v>
+        <v>0</v>
       </c>
       <c r="AA105" s="11">
         <v>0</v>
@@ -14940,19 +14940,19 @@
         <v>0</v>
       </c>
       <c r="AD105" s="11">
-        <v>0</v>
+        <v>9791</v>
       </c>
       <c r="AE105" s="11">
-        <v>9791</v>
+        <v>27755</v>
       </c>
       <c r="AF105" s="11">
-        <v>27755</v>
+        <v>0</v>
       </c>
       <c r="AG105" s="11">
-        <v>0</v>
+        <v>2833</v>
       </c>
       <c r="AH105" s="11">
-        <v>2833</v>
+        <v>0</v>
       </c>
       <c r="AI105" s="11">
         <v>0</v>
@@ -14967,10 +14967,10 @@
         <v>0</v>
       </c>
       <c r="AM105" s="11">
-        <v>0</v>
+        <v>1879</v>
       </c>
       <c r="AN105" s="11">
-        <v>1879</v>
+        <v>0</v>
       </c>
       <c r="AO105" s="11">
         <v>0</v>
@@ -14981,11 +14981,11 @@
       <c r="AQ105" s="11">
         <v>0</v>
       </c>
-      <c r="AR105" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS105" s="11" t="s">
-        <v>58</v>
+      <c r="AR105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS105" s="11">
+        <v>0</v>
       </c>
       <c r="AT105" s="11">
         <v>0</v>
@@ -14993,8 +14993,8 @@
       <c r="AU105" s="11">
         <v>0</v>
       </c>
-      <c r="AV105" s="11">
-        <v>0</v>
+      <c r="AV105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW105" s="11" t="s">
         <v>58</v>
@@ -15015,7 +15015,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
         <v>70</v>
       </c>
@@ -15077,20 +15077,20 @@
       <c r="V106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W106" s="13" t="s">
-        <v>58</v>
+      <c r="W106" s="13">
+        <v>665</v>
       </c>
       <c r="X106" s="13">
-        <v>665</v>
+        <v>675799</v>
       </c>
       <c r="Y106" s="13">
-        <v>675799</v>
+        <v>242362</v>
       </c>
       <c r="Z106" s="13">
-        <v>242362</v>
+        <v>1726184</v>
       </c>
       <c r="AA106" s="13">
-        <v>1726184</v>
+        <v>0</v>
       </c>
       <c r="AB106" s="13">
         <v>0</v>
@@ -15102,11 +15102,11 @@
         <v>0</v>
       </c>
       <c r="AE106" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF106" s="13">
         <v>1517513</v>
       </c>
+      <c r="AF106" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG106" s="13" t="s">
         <v>58</v>
       </c>
@@ -15140,11 +15140,11 @@
       <c r="AQ106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS106" s="13">
-        <v>0</v>
+      <c r="AR106" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS106" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT106" s="13" t="s">
         <v>58</v>
@@ -15174,7 +15174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>71</v>
       </c>
@@ -15236,20 +15236,20 @@
       <c r="V107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W107" s="11" t="s">
-        <v>58</v>
+      <c r="W107" s="11">
+        <v>2010</v>
       </c>
       <c r="X107" s="11">
-        <v>2010</v>
+        <v>1004</v>
       </c>
       <c r="Y107" s="11">
-        <v>1004</v>
+        <v>7034</v>
       </c>
       <c r="Z107" s="11">
-        <v>7034</v>
+        <v>4019</v>
       </c>
       <c r="AA107" s="11">
-        <v>4019</v>
+        <v>0</v>
       </c>
       <c r="AB107" s="11">
         <v>0</v>
@@ -15258,25 +15258,25 @@
         <v>0</v>
       </c>
       <c r="AD107" s="11">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="AE107" s="11">
-        <v>1005</v>
-      </c>
-      <c r="AF107" s="11">
         <v>23746</v>
       </c>
-      <c r="AG107" s="11" t="s">
-        <v>58</v>
+      <c r="AF107" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG107" s="11">
+        <v>0</v>
       </c>
       <c r="AH107" s="11">
         <v>0</v>
       </c>
       <c r="AI107" s="11">
-        <v>0</v>
+        <v>733456</v>
       </c>
       <c r="AJ107" s="11">
-        <v>733456</v>
+        <v>0</v>
       </c>
       <c r="AK107" s="11">
         <v>0</v>
@@ -15297,11 +15297,11 @@
         <v>0</v>
       </c>
       <c r="AQ107" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR107" s="11">
         <v>290664</v>
       </c>
+      <c r="AR107" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS107" s="11" t="s">
         <v>58</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
         <v>72</v>
       </c>
@@ -15410,89 +15410,89 @@
       <c r="AA108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB108" s="13" t="s">
-        <v>58</v>
+      <c r="AB108" s="13">
+        <v>0</v>
       </c>
       <c r="AC108" s="13">
-        <v>0</v>
+        <v>4475</v>
       </c>
       <c r="AD108" s="13">
-        <v>4475</v>
+        <v>18441</v>
       </c>
       <c r="AE108" s="13">
-        <v>18441</v>
-      </c>
-      <c r="AF108" s="13">
         <v>107485</v>
       </c>
-      <c r="AG108" s="13" t="s">
-        <v>58</v>
+      <c r="AF108" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG108" s="13">
+        <v>2560</v>
       </c>
       <c r="AH108" s="13">
-        <v>2560</v>
+        <v>2532</v>
       </c>
       <c r="AI108" s="13">
-        <v>2532</v>
+        <v>20504</v>
       </c>
       <c r="AJ108" s="13">
-        <v>20504</v>
+        <v>1120031</v>
       </c>
       <c r="AK108" s="13">
-        <v>1120031</v>
+        <v>2164192</v>
       </c>
       <c r="AL108" s="13">
-        <v>2164192</v>
+        <v>2300902</v>
       </c>
       <c r="AM108" s="13">
-        <v>2300902</v>
+        <v>5231947</v>
       </c>
       <c r="AN108" s="13">
-        <v>5231947</v>
+        <v>2963348</v>
       </c>
       <c r="AO108" s="13">
-        <v>2963348</v>
+        <v>3132682</v>
       </c>
       <c r="AP108" s="13">
-        <v>3132682</v>
+        <v>3166879</v>
       </c>
       <c r="AQ108" s="13">
-        <v>3166879</v>
+        <v>3228665</v>
       </c>
       <c r="AR108" s="13">
-        <v>3228665</v>
+        <v>1465947</v>
       </c>
       <c r="AS108" s="13">
-        <v>1465947</v>
+        <v>3024784</v>
       </c>
       <c r="AT108" s="13">
-        <v>3024784</v>
+        <v>1162861</v>
       </c>
       <c r="AU108" s="13">
-        <v>1162861</v>
+        <v>5412323</v>
       </c>
       <c r="AV108" s="13">
-        <v>5412323</v>
+        <v>3869593</v>
       </c>
       <c r="AW108" s="13">
-        <v>3869593</v>
+        <v>3532322</v>
       </c>
       <c r="AX108" s="13">
-        <v>3532322</v>
+        <v>6075805</v>
       </c>
       <c r="AY108" s="13">
-        <v>6075805</v>
+        <v>4132714</v>
       </c>
       <c r="AZ108" s="13">
-        <v>4132714</v>
+        <v>12489421</v>
       </c>
       <c r="BA108" s="13">
-        <v>12489421</v>
+        <v>13430819</v>
       </c>
       <c r="BB108" s="13">
-        <v>13430819</v>
+        <v>14673121</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="14" t="s">
         <v>85</v>
       </c>
@@ -15553,103 +15553,103 @@
         <v>0</v>
       </c>
       <c r="W109" s="15">
-        <v>0</v>
+        <v>15777665</v>
       </c>
       <c r="X109" s="15">
-        <v>15777665</v>
+        <v>31816714</v>
       </c>
       <c r="Y109" s="15">
-        <v>31816714</v>
+        <v>39666084</v>
       </c>
       <c r="Z109" s="15">
-        <v>39666084</v>
+        <v>37289261</v>
       </c>
       <c r="AA109" s="15">
-        <v>37289261</v>
+        <v>37723564</v>
       </c>
       <c r="AB109" s="15">
-        <v>37723564</v>
+        <v>66343116</v>
       </c>
       <c r="AC109" s="15">
-        <v>66343116</v>
+        <v>49354237</v>
       </c>
       <c r="AD109" s="15">
-        <v>49354237</v>
+        <v>45834273</v>
       </c>
       <c r="AE109" s="15">
-        <v>45834273</v>
+        <v>72115469</v>
       </c>
       <c r="AF109" s="15">
-        <v>72115469</v>
+        <v>44731694</v>
       </c>
       <c r="AG109" s="15">
-        <v>44731694</v>
+        <v>21482573</v>
       </c>
       <c r="AH109" s="15">
-        <v>21482573</v>
+        <v>47749678</v>
       </c>
       <c r="AI109" s="15">
-        <v>47749678</v>
+        <v>60914514</v>
       </c>
       <c r="AJ109" s="15">
-        <v>60914514</v>
+        <v>45116238</v>
       </c>
       <c r="AK109" s="15">
-        <v>45116238</v>
+        <v>43338185</v>
       </c>
       <c r="AL109" s="15">
-        <v>43338185</v>
+        <v>54332477</v>
       </c>
       <c r="AM109" s="15">
-        <v>54332477</v>
+        <v>70285014</v>
       </c>
       <c r="AN109" s="15">
-        <v>70285014</v>
+        <v>59411100</v>
       </c>
       <c r="AO109" s="15">
-        <v>59411100</v>
+        <v>97869198</v>
       </c>
       <c r="AP109" s="15">
-        <v>97869198</v>
+        <v>61364829</v>
       </c>
       <c r="AQ109" s="15">
-        <v>61364829</v>
+        <v>486820063</v>
       </c>
       <c r="AR109" s="15">
-        <v>486820063</v>
+        <v>62760878</v>
       </c>
       <c r="AS109" s="15">
-        <v>62760878</v>
+        <v>90649396</v>
       </c>
       <c r="AT109" s="15">
-        <v>90649396</v>
+        <v>183890532</v>
       </c>
       <c r="AU109" s="15">
-        <v>183890532</v>
+        <v>91833706</v>
       </c>
       <c r="AV109" s="15">
-        <v>91833706</v>
+        <v>94120748</v>
       </c>
       <c r="AW109" s="15">
-        <v>94120748</v>
+        <v>189991449</v>
       </c>
       <c r="AX109" s="15">
-        <v>189991449</v>
+        <v>109280650</v>
       </c>
       <c r="AY109" s="15">
-        <v>109280650</v>
+        <v>137572087</v>
       </c>
       <c r="AZ109" s="15">
-        <v>137572087</v>
+        <v>278911381</v>
       </c>
       <c r="BA109" s="15">
-        <v>278911381</v>
+        <v>125759349</v>
       </c>
       <c r="BB109" s="15">
-        <v>125759349</v>
+        <v>153574379</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
         <v>93</v>
       </c>
@@ -15706,7 +15706,7 @@
       <c r="BA110" s="9"/>
       <c r="BB110" s="9"/>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
         <v>59</v>
       </c>
@@ -15795,8 +15795,8 @@
       <c r="AE111" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF111" s="11" t="s">
-        <v>58</v>
+      <c r="AF111" s="11">
+        <v>0</v>
       </c>
       <c r="AG111" s="11">
         <v>0</v>
@@ -15828,8 +15828,8 @@
       <c r="AP111" s="11">
         <v>0</v>
       </c>
-      <c r="AQ111" s="11">
-        <v>0</v>
+      <c r="AQ111" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR111" s="11" t="s">
         <v>58</v>
@@ -15865,7 +15865,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
         <v>62</v>
       </c>
@@ -15954,8 +15954,8 @@
       <c r="AE112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF112" s="13" t="s">
-        <v>58</v>
+      <c r="AF112" s="13">
+        <v>0</v>
       </c>
       <c r="AG112" s="13">
         <v>0</v>
@@ -15987,8 +15987,8 @@
       <c r="AP112" s="13">
         <v>0</v>
       </c>
-      <c r="AQ112" s="13">
-        <v>0</v>
+      <c r="AQ112" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR112" s="13" t="s">
         <v>58</v>
@@ -16024,7 +16024,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
         <v>63</v>
       </c>
@@ -16113,8 +16113,8 @@
       <c r="AE113" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF113" s="11" t="s">
-        <v>58</v>
+      <c r="AF113" s="11">
+        <v>0</v>
       </c>
       <c r="AG113" s="11">
         <v>0</v>
@@ -16146,8 +16146,8 @@
       <c r="AP113" s="11">
         <v>0</v>
       </c>
-      <c r="AQ113" s="11">
-        <v>0</v>
+      <c r="AQ113" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR113" s="11" t="s">
         <v>58</v>
@@ -16183,7 +16183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
         <v>65</v>
       </c>
@@ -16272,8 +16272,8 @@
       <c r="AE114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF114" s="13" t="s">
-        <v>58</v>
+      <c r="AF114" s="13">
+        <v>0</v>
       </c>
       <c r="AG114" s="13">
         <v>0</v>
@@ -16305,8 +16305,8 @@
       <c r="AP114" s="13">
         <v>0</v>
       </c>
-      <c r="AQ114" s="13">
-        <v>0</v>
+      <c r="AQ114" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR114" s="13" t="s">
         <v>58</v>
@@ -16342,7 +16342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
         <v>66</v>
       </c>
@@ -16431,8 +16431,8 @@
       <c r="AE115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF115" s="11" t="s">
-        <v>58</v>
+      <c r="AF115" s="11">
+        <v>0</v>
       </c>
       <c r="AG115" s="11">
         <v>0</v>
@@ -16464,8 +16464,8 @@
       <c r="AP115" s="11">
         <v>0</v>
       </c>
-      <c r="AQ115" s="11">
-        <v>0</v>
+      <c r="AQ115" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR115" s="11" t="s">
         <v>58</v>
@@ -16501,7 +16501,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
         <v>67</v>
       </c>
@@ -16590,8 +16590,8 @@
       <c r="AE116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF116" s="13" t="s">
-        <v>58</v>
+      <c r="AF116" s="13">
+        <v>0</v>
       </c>
       <c r="AG116" s="13">
         <v>0</v>
@@ -16612,10 +16612,10 @@
         <v>0</v>
       </c>
       <c r="AM116" s="13">
-        <v>0</v>
+        <v>-467</v>
       </c>
       <c r="AN116" s="13">
-        <v>-467</v>
+        <v>0</v>
       </c>
       <c r="AO116" s="13">
         <v>0</v>
@@ -16623,8 +16623,8 @@
       <c r="AP116" s="13">
         <v>0</v>
       </c>
-      <c r="AQ116" s="13">
-        <v>0</v>
+      <c r="AQ116" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR116" s="13" t="s">
         <v>58</v>
@@ -16660,7 +16660,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
         <v>68</v>
       </c>
@@ -16749,8 +16749,8 @@
       <c r="AE117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF117" s="11" t="s">
-        <v>58</v>
+      <c r="AF117" s="11">
+        <v>0</v>
       </c>
       <c r="AG117" s="11">
         <v>0</v>
@@ -16782,8 +16782,8 @@
       <c r="AP117" s="11">
         <v>0</v>
       </c>
-      <c r="AQ117" s="11">
-        <v>0</v>
+      <c r="AQ117" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR117" s="11" t="s">
         <v>58</v>
@@ -16819,7 +16819,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
         <v>69</v>
       </c>
@@ -16908,8 +16908,8 @@
       <c r="AE118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF118" s="13" t="s">
-        <v>58</v>
+      <c r="AF118" s="13">
+        <v>0</v>
       </c>
       <c r="AG118" s="13">
         <v>0</v>
@@ -16941,8 +16941,8 @@
       <c r="AP118" s="13">
         <v>0</v>
       </c>
-      <c r="AQ118" s="13">
-        <v>0</v>
+      <c r="AQ118" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR118" s="13" t="s">
         <v>58</v>
@@ -16978,7 +16978,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
         <v>75</v>
       </c>
@@ -17067,8 +17067,8 @@
       <c r="AE119" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF119" s="11" t="s">
-        <v>58</v>
+      <c r="AF119" s="11">
+        <v>0</v>
       </c>
       <c r="AG119" s="11">
         <v>0</v>
@@ -17100,8 +17100,8 @@
       <c r="AP119" s="11">
         <v>0</v>
       </c>
-      <c r="AQ119" s="11">
-        <v>0</v>
+      <c r="AQ119" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR119" s="11" t="s">
         <v>58</v>
@@ -17137,7 +17137,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
         <v>76</v>
       </c>
@@ -17259,17 +17259,17 @@
       <c r="AP120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ120" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR120" s="13">
+      <c r="AQ120" s="13">
         <v>493431</v>
       </c>
+      <c r="AR120" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT120" s="13" t="s">
-        <v>58</v>
+      <c r="AT120" s="13">
+        <v>0</v>
       </c>
       <c r="AU120" s="13">
         <v>0</v>
@@ -17278,25 +17278,25 @@
         <v>0</v>
       </c>
       <c r="AW120" s="13">
-        <v>0</v>
+        <v>26674</v>
       </c>
       <c r="AX120" s="13">
-        <v>26674</v>
+        <v>0</v>
       </c>
       <c r="AY120" s="13">
         <v>0</v>
       </c>
       <c r="AZ120" s="13">
-        <v>0</v>
+        <v>26498</v>
       </c>
       <c r="BA120" s="13">
-        <v>26498</v>
+        <v>0</v>
       </c>
       <c r="BB120" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
         <v>77</v>
       </c>
@@ -17418,44 +17418,44 @@
       <c r="AP121" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ121" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR121" s="11">
+      <c r="AQ121" s="11">
         <v>4678693</v>
       </c>
-      <c r="AS121" s="11" t="s">
-        <v>58</v>
+      <c r="AR121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS121" s="11">
+        <v>168051</v>
       </c>
       <c r="AT121" s="11">
-        <v>168051</v>
+        <v>411013</v>
       </c>
       <c r="AU121" s="11">
-        <v>411013</v>
+        <v>0</v>
       </c>
       <c r="AV121" s="11">
         <v>0</v>
       </c>
       <c r="AW121" s="11">
-        <v>0</v>
+        <v>518577</v>
       </c>
       <c r="AX121" s="11">
-        <v>518577</v>
+        <v>0</v>
       </c>
       <c r="AY121" s="11">
         <v>0</v>
       </c>
       <c r="AZ121" s="11">
-        <v>0</v>
+        <v>657158</v>
       </c>
       <c r="BA121" s="11">
-        <v>657158</v>
+        <v>0</v>
       </c>
       <c r="BB121" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B122" s="16" t="s">
         <v>87</v>
       </c>
@@ -17564,10 +17564,10 @@
         <v>0</v>
       </c>
       <c r="AM122" s="17">
-        <v>0</v>
+        <v>-467</v>
       </c>
       <c r="AN122" s="17">
-        <v>-467</v>
+        <v>0</v>
       </c>
       <c r="AO122" s="17">
         <v>0</v>
@@ -17576,43 +17576,43 @@
         <v>0</v>
       </c>
       <c r="AQ122" s="17">
-        <v>0</v>
+        <v>5172124</v>
       </c>
       <c r="AR122" s="17">
-        <v>5172124</v>
+        <v>0</v>
       </c>
       <c r="AS122" s="17">
-        <v>0</v>
+        <v>168051</v>
       </c>
       <c r="AT122" s="17">
-        <v>168051</v>
+        <v>411013</v>
       </c>
       <c r="AU122" s="17">
-        <v>411013</v>
+        <v>0</v>
       </c>
       <c r="AV122" s="17">
         <v>0</v>
       </c>
       <c r="AW122" s="17">
-        <v>0</v>
+        <v>545251</v>
       </c>
       <c r="AX122" s="17">
-        <v>545251</v>
+        <v>0</v>
       </c>
       <c r="AY122" s="17">
         <v>0</v>
       </c>
       <c r="AZ122" s="17">
-        <v>0</v>
+        <v>683656</v>
       </c>
       <c r="BA122" s="17">
-        <v>683656</v>
+        <v>0</v>
       </c>
       <c r="BB122" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B123" s="18" t="s">
         <v>94</v>
       </c>
@@ -17669,7 +17669,7 @@
       <c r="BA123" s="19"/>
       <c r="BB123" s="19"/>
     </row>
-    <row r="124" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B124" s="14" t="s">
         <v>81</v>
       </c>
@@ -17731,8 +17731,8 @@
       <c r="V124" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W124" s="15" t="s">
-        <v>58</v>
+      <c r="W124" s="15">
+        <v>0</v>
       </c>
       <c r="X124" s="15">
         <v>0</v>
@@ -17828,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
         <v>95</v>
       </c>
@@ -17885,7 +17885,7 @@
       <c r="BA125" s="9"/>
       <c r="BB125" s="9"/>
     </row>
-    <row r="126" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
         <v>56</v>
       </c>
@@ -18022,8 +18022,8 @@
       <c r="AU126" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV126" s="11" t="s">
-        <v>58</v>
+      <c r="AV126" s="11">
+        <v>0</v>
       </c>
       <c r="AW126" s="11">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
         <v>65</v>
       </c>
@@ -18151,11 +18151,11 @@
       <c r="AK127" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL127" s="13" t="s">
-        <v>58</v>
+      <c r="AL127" s="13">
+        <v>-11889</v>
       </c>
       <c r="AM127" s="13">
-        <v>-11889</v>
+        <v>0</v>
       </c>
       <c r="AN127" s="13">
         <v>0</v>
@@ -18167,11 +18167,11 @@
         <v>0</v>
       </c>
       <c r="AQ127" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR127" s="13">
         <v>11889</v>
       </c>
+      <c r="AR127" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS127" s="13" t="s">
         <v>58</v>
       </c>
@@ -18181,8 +18181,8 @@
       <c r="AU127" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV127" s="13" t="s">
-        <v>58</v>
+      <c r="AV127" s="13">
+        <v>0</v>
       </c>
       <c r="AW127" s="13">
         <v>0</v>
@@ -18203,7 +18203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
         <v>66</v>
       </c>
@@ -18349,11 +18349,11 @@
       <c r="AX128" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY128" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ128" s="11">
-        <v>0</v>
+      <c r="AY128" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ128" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BA128" s="11" t="s">
         <v>58</v>
@@ -18362,7 +18362,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B129" s="12" t="s">
         <v>67</v>
       </c>
@@ -18484,12 +18484,12 @@
       <c r="AP129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ129" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR129" s="13">
+      <c r="AQ129" s="13">
         <v>467</v>
       </c>
+      <c r="AR129" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS129" s="13" t="s">
         <v>58</v>
       </c>
@@ -18508,11 +18508,11 @@
       <c r="AX129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY129" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ129" s="13">
-        <v>0</v>
+      <c r="AY129" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ129" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA129" s="13" t="s">
         <v>58</v>
@@ -18521,7 +18521,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
         <v>68</v>
       </c>
@@ -18643,11 +18643,11 @@
       <c r="AP130" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ130" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR130" s="11">
-        <v>0</v>
+      <c r="AQ130" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR130" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS130" s="11" t="s">
         <v>58</v>
@@ -18658,8 +18658,8 @@
       <c r="AU130" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV130" s="11" t="s">
-        <v>58</v>
+      <c r="AV130" s="11">
+        <v>0</v>
       </c>
       <c r="AW130" s="11">
         <v>0</v>
@@ -18680,7 +18680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B131" s="12" t="s">
         <v>69</v>
       </c>
@@ -18760,17 +18760,17 @@
       <c r="AB131" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC131" s="13" t="s">
-        <v>58</v>
+      <c r="AC131" s="13">
+        <v>-28096</v>
       </c>
       <c r="AD131" s="13">
-        <v>-28096</v>
+        <v>0</v>
       </c>
       <c r="AE131" s="13">
         <v>0</v>
       </c>
-      <c r="AF131" s="13">
-        <v>0</v>
+      <c r="AF131" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG131" s="13" t="s">
         <v>58</v>
@@ -18793,21 +18793,21 @@
       <c r="AM131" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN131" s="13" t="s">
-        <v>58</v>
+      <c r="AN131" s="13">
+        <v>-1639</v>
       </c>
       <c r="AO131" s="13">
-        <v>-1639</v>
+        <v>0</v>
       </c>
       <c r="AP131" s="13">
         <v>0</v>
       </c>
       <c r="AQ131" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR131" s="13">
         <v>1639</v>
       </c>
+      <c r="AR131" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS131" s="13" t="s">
         <v>58</v>
       </c>
@@ -18839,7 +18839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
         <v>70</v>
       </c>
@@ -18901,8 +18901,8 @@
       <c r="V132" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W132" s="11" t="s">
-        <v>58</v>
+      <c r="W132" s="11">
+        <v>0</v>
       </c>
       <c r="X132" s="11">
         <v>0</v>
@@ -18914,22 +18914,22 @@
         <v>0</v>
       </c>
       <c r="AA132" s="11">
-        <v>0</v>
+        <v>-456</v>
       </c>
       <c r="AB132" s="11">
-        <v>-456</v>
+        <v>-3449</v>
       </c>
       <c r="AC132" s="11">
-        <v>-3449</v>
+        <v>-25298</v>
       </c>
       <c r="AD132" s="11">
-        <v>-25298</v>
+        <v>-366349</v>
       </c>
       <c r="AE132" s="11">
-        <v>-366349</v>
-      </c>
-      <c r="AF132" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF132" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG132" s="11" t="s">
         <v>58</v>
@@ -18955,8 +18955,8 @@
       <c r="AN132" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO132" s="11" t="s">
-        <v>58</v>
+      <c r="AO132" s="11">
+        <v>0</v>
       </c>
       <c r="AP132" s="11">
         <v>0</v>
@@ -18964,8 +18964,8 @@
       <c r="AQ132" s="11">
         <v>0</v>
       </c>
-      <c r="AR132" s="11">
-        <v>0</v>
+      <c r="AR132" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS132" s="11" t="s">
         <v>58</v>
@@ -18998,7 +18998,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B133" s="12" t="s">
         <v>71</v>
       </c>
@@ -19084,11 +19084,11 @@
       <c r="AD133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE133" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF133" s="13">
-        <v>0</v>
+      <c r="AE133" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF133" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG133" s="13" t="s">
         <v>58</v>
@@ -19120,11 +19120,11 @@
       <c r="AP133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ133" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR133" s="13">
-        <v>0</v>
+      <c r="AQ133" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR133" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS133" s="13" t="s">
         <v>58</v>
@@ -19157,7 +19157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B134" s="14" t="s">
         <v>89</v>
       </c>
@@ -19219,8 +19219,8 @@
       <c r="V134" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W134" s="15" t="s">
-        <v>58</v>
+      <c r="W134" s="15">
+        <v>0</v>
       </c>
       <c r="X134" s="15">
         <v>0</v>
@@ -19232,19 +19232,19 @@
         <v>0</v>
       </c>
       <c r="AA134" s="15">
-        <v>0</v>
+        <v>-456</v>
       </c>
       <c r="AB134" s="15">
-        <v>-456</v>
+        <v>-3449</v>
       </c>
       <c r="AC134" s="15">
-        <v>-3449</v>
+        <v>-53394</v>
       </c>
       <c r="AD134" s="15">
-        <v>-53394</v>
+        <v>-366349</v>
       </c>
       <c r="AE134" s="15">
-        <v>-366349</v>
+        <v>0</v>
       </c>
       <c r="AF134" s="15">
         <v>0</v>
@@ -19265,25 +19265,25 @@
         <v>0</v>
       </c>
       <c r="AL134" s="15">
-        <v>0</v>
+        <v>-11889</v>
       </c>
       <c r="AM134" s="15">
-        <v>-11889</v>
+        <v>0</v>
       </c>
       <c r="AN134" s="15">
-        <v>0</v>
+        <v>-1639</v>
       </c>
       <c r="AO134" s="15">
-        <v>-1639</v>
+        <v>0</v>
       </c>
       <c r="AP134" s="15">
         <v>0</v>
       </c>
       <c r="AQ134" s="15">
-        <v>0</v>
+        <v>13995</v>
       </c>
       <c r="AR134" s="15">
-        <v>13995</v>
+        <v>0</v>
       </c>
       <c r="AS134" s="15">
         <v>0</v>
@@ -19316,7 +19316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
         <v>96</v>
       </c>
@@ -19373,7 +19373,7 @@
       <c r="BA135" s="9"/>
       <c r="BB135" s="9"/>
     </row>
-    <row r="136" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
         <v>97</v>
       </c>
@@ -19435,8 +19435,8 @@
       <c r="V136" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W136" s="11" t="s">
-        <v>58</v>
+      <c r="W136" s="11">
+        <v>0</v>
       </c>
       <c r="X136" s="11">
         <v>0</v>
@@ -19532,7 +19532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B137" s="16" t="s">
         <v>82</v>
       </c>
@@ -19593,103 +19593,103 @@
         <v>0</v>
       </c>
       <c r="W137" s="17">
-        <v>0</v>
+        <v>15777665</v>
       </c>
       <c r="X137" s="17">
-        <v>15777665</v>
+        <v>31816714</v>
       </c>
       <c r="Y137" s="17">
-        <v>31816714</v>
+        <v>39666084</v>
       </c>
       <c r="Z137" s="17">
-        <v>39666084</v>
+        <v>37289261</v>
       </c>
       <c r="AA137" s="17">
-        <v>37289261</v>
+        <v>37723108</v>
       </c>
       <c r="AB137" s="17">
-        <v>37723108</v>
+        <v>66339667</v>
       </c>
       <c r="AC137" s="17">
-        <v>66339667</v>
+        <v>49300843</v>
       </c>
       <c r="AD137" s="17">
-        <v>49300843</v>
+        <v>45467924</v>
       </c>
       <c r="AE137" s="17">
-        <v>45467924</v>
+        <v>72115469</v>
       </c>
       <c r="AF137" s="17">
-        <v>72115469</v>
+        <v>44731694</v>
       </c>
       <c r="AG137" s="17">
-        <v>44731694</v>
+        <v>21482573</v>
       </c>
       <c r="AH137" s="17">
-        <v>21482573</v>
+        <v>47749678</v>
       </c>
       <c r="AI137" s="17">
-        <v>47749678</v>
+        <v>60914514</v>
       </c>
       <c r="AJ137" s="17">
-        <v>60914514</v>
+        <v>45116238</v>
       </c>
       <c r="AK137" s="17">
-        <v>45116238</v>
+        <v>43338185</v>
       </c>
       <c r="AL137" s="17">
-        <v>43338185</v>
+        <v>54320588</v>
       </c>
       <c r="AM137" s="17">
-        <v>54320588</v>
+        <v>70284547</v>
       </c>
       <c r="AN137" s="17">
-        <v>70284547</v>
+        <v>59409461</v>
       </c>
       <c r="AO137" s="17">
-        <v>59409461</v>
+        <v>97869198</v>
       </c>
       <c r="AP137" s="17">
-        <v>97869198</v>
+        <v>61364829</v>
       </c>
       <c r="AQ137" s="17">
-        <v>61364829</v>
+        <v>492006182</v>
       </c>
       <c r="AR137" s="17">
-        <v>492006182</v>
+        <v>62760878</v>
       </c>
       <c r="AS137" s="17">
-        <v>62760878</v>
+        <v>90817447</v>
       </c>
       <c r="AT137" s="17">
-        <v>90817447</v>
+        <v>184301545</v>
       </c>
       <c r="AU137" s="17">
-        <v>184301545</v>
+        <v>91833706</v>
       </c>
       <c r="AV137" s="17">
-        <v>91833706</v>
+        <v>94120748</v>
       </c>
       <c r="AW137" s="17">
-        <v>94120748</v>
+        <v>190536700</v>
       </c>
       <c r="AX137" s="17">
-        <v>190536700</v>
+        <v>109280650</v>
       </c>
       <c r="AY137" s="17">
-        <v>109280650</v>
+        <v>137572087</v>
       </c>
       <c r="AZ137" s="17">
-        <v>137572087</v>
+        <v>279595037</v>
       </c>
       <c r="BA137" s="17">
-        <v>279595037</v>
+        <v>125759349</v>
       </c>
       <c r="BB137" s="17">
-        <v>125759349</v>
+        <v>153574379</v>
       </c>
     </row>
-    <row r="138" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -19744,7 +19744,7 @@
       <c r="BA138" s="1"/>
       <c r="BB138" s="1"/>
     </row>
-    <row r="139" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -19799,7 +19799,7 @@
       <c r="BA139" s="1"/>
       <c r="BB139" s="1"/>
     </row>
-    <row r="140" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -19854,7 +19854,7 @@
       <c r="BA140" s="1"/>
       <c r="BB140" s="1"/>
     </row>
-    <row r="141" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
         <v>98</v>
       </c>
@@ -20011,7 +20011,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -20066,7 +20066,7 @@
       <c r="BA142" s="1"/>
       <c r="BB142" s="1"/>
     </row>
-    <row r="143" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
         <v>99</v>
       </c>
@@ -20123,7 +20123,7 @@
       <c r="BA143" s="9"/>
       <c r="BB143" s="9"/>
     </row>
-    <row r="144" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
         <v>56</v>
       </c>
@@ -20245,44 +20245,44 @@
       <c r="AP144" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR144" s="11">
+      <c r="AQ144" s="11">
         <v>-2797571429</v>
       </c>
+      <c r="AR144" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS144" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AT144" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU144" s="11" t="s">
-        <v>58</v>
+      <c r="AU144" s="11">
+        <v>678000000</v>
       </c>
       <c r="AV144" s="11">
-        <v>678000000</v>
-      </c>
-      <c r="AW144" s="11">
         <v>1058011570</v>
       </c>
+      <c r="AW144" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AX144" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AY144" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ144" s="11" t="s">
-        <v>58</v>
+      <c r="AZ144" s="11">
+        <v>2529041738</v>
       </c>
       <c r="BA144" s="11">
-        <v>2529041738</v>
+        <v>2530305806</v>
       </c>
       <c r="BB144" s="11">
-        <v>2530305806</v>
+        <v>2551590965</v>
       </c>
     </row>
-    <row r="145" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B145" s="12" t="s">
         <v>59</v>
       </c>
@@ -20344,104 +20344,104 @@
       <c r="V145" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W145" s="13" t="s">
-        <v>58</v>
+      <c r="W145" s="13">
+        <v>460556966</v>
       </c>
       <c r="X145" s="13">
-        <v>460556966</v>
+        <v>740662295</v>
       </c>
       <c r="Y145" s="13">
-        <v>740662295</v>
+        <v>767943545</v>
       </c>
       <c r="Z145" s="13">
-        <v>767943545</v>
+        <v>812727583</v>
       </c>
       <c r="AA145" s="13">
-        <v>812727583</v>
+        <v>851429813</v>
       </c>
       <c r="AB145" s="13">
-        <v>851429813</v>
+        <v>996456530</v>
       </c>
       <c r="AC145" s="13">
-        <v>996456530</v>
+        <v>1029396401</v>
       </c>
       <c r="AD145" s="13">
-        <v>1029396401</v>
+        <v>1139368725</v>
       </c>
       <c r="AE145" s="13">
-        <v>1139368725</v>
+        <v>1123931182</v>
       </c>
       <c r="AF145" s="13">
-        <v>1123931182</v>
+        <v>1071934217</v>
       </c>
       <c r="AG145" s="13">
-        <v>1071934217</v>
+        <v>1399169875</v>
       </c>
       <c r="AH145" s="13">
-        <v>1399169875</v>
+        <v>1267932220</v>
       </c>
       <c r="AI145" s="13">
-        <v>1267932220</v>
+        <v>1142067476</v>
       </c>
       <c r="AJ145" s="13">
-        <v>1142067476</v>
+        <v>1363904232</v>
       </c>
       <c r="AK145" s="13">
-        <v>1363904232</v>
+        <v>1478438108</v>
       </c>
       <c r="AL145" s="13">
-        <v>1478438108</v>
+        <v>1437288465</v>
       </c>
       <c r="AM145" s="13">
-        <v>1437288465</v>
+        <v>1389646163</v>
       </c>
       <c r="AN145" s="13">
-        <v>1389646163</v>
+        <v>1575898332</v>
       </c>
       <c r="AO145" s="13">
-        <v>1575898332</v>
+        <v>1495354798</v>
       </c>
       <c r="AP145" s="13">
-        <v>1495354798</v>
+        <v>1640801078</v>
       </c>
       <c r="AQ145" s="13">
-        <v>1640801078</v>
+        <v>1427940355</v>
       </c>
       <c r="AR145" s="13">
-        <v>1427940355</v>
+        <v>1816114473</v>
       </c>
       <c r="AS145" s="13">
-        <v>1816114473</v>
+        <v>1788948360</v>
       </c>
       <c r="AT145" s="13">
-        <v>1788948360</v>
+        <v>2084990564</v>
       </c>
       <c r="AU145" s="13">
-        <v>2084990564</v>
+        <v>2074023866</v>
       </c>
       <c r="AV145" s="13">
-        <v>2074023866</v>
+        <v>1943752785</v>
       </c>
       <c r="AW145" s="13">
-        <v>1943752785</v>
+        <v>2120083716</v>
       </c>
       <c r="AX145" s="13">
-        <v>2120083716</v>
+        <v>2124737356</v>
       </c>
       <c r="AY145" s="13">
-        <v>2124737356</v>
+        <v>2039174302</v>
       </c>
       <c r="AZ145" s="13">
-        <v>2039174302</v>
+        <v>2293118589</v>
       </c>
       <c r="BA145" s="13">
-        <v>2293118589</v>
+        <v>2227106173</v>
       </c>
       <c r="BB145" s="13">
-        <v>2227106173</v>
+        <v>2252276593</v>
       </c>
     </row>
-    <row r="146" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
         <v>62</v>
       </c>
@@ -20503,104 +20503,104 @@
       <c r="V146" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W146" s="11" t="s">
-        <v>58</v>
+      <c r="W146" s="11">
+        <v>605195122</v>
       </c>
       <c r="X146" s="11">
-        <v>605195122</v>
+        <v>382750000</v>
       </c>
       <c r="Y146" s="11">
-        <v>382750000</v>
+        <v>963214286</v>
       </c>
       <c r="Z146" s="11">
-        <v>963214286</v>
+        <v>1269338487</v>
       </c>
       <c r="AA146" s="11">
-        <v>1269338487</v>
+        <v>1271433578</v>
       </c>
       <c r="AB146" s="11">
-        <v>1271433578</v>
+        <v>1476443912</v>
       </c>
       <c r="AC146" s="11">
-        <v>1476443912</v>
+        <v>1559133166</v>
       </c>
       <c r="AD146" s="11">
-        <v>1559133166</v>
+        <v>1577875908</v>
       </c>
       <c r="AE146" s="11">
-        <v>1577875908</v>
+        <v>1577369886</v>
       </c>
       <c r="AF146" s="11">
-        <v>1577369886</v>
+        <v>1590768254</v>
       </c>
       <c r="AG146" s="11">
-        <v>1590768254</v>
+        <v>1577428571</v>
       </c>
       <c r="AH146" s="11">
-        <v>1577428571</v>
+        <v>1577195699</v>
       </c>
       <c r="AI146" s="11">
-        <v>1577195699</v>
+        <v>1579886480</v>
       </c>
       <c r="AJ146" s="11">
-        <v>1579886480</v>
+        <v>1580132317</v>
       </c>
       <c r="AK146" s="11">
-        <v>1580132317</v>
+        <v>1588199202</v>
       </c>
       <c r="AL146" s="11">
-        <v>1588199202</v>
+        <v>1613878788</v>
       </c>
       <c r="AM146" s="11">
-        <v>1613878788</v>
+        <v>1597701929</v>
       </c>
       <c r="AN146" s="11">
-        <v>1597701929</v>
+        <v>1595192891</v>
       </c>
       <c r="AO146" s="11">
-        <v>1595192891</v>
+        <v>1726239755</v>
       </c>
       <c r="AP146" s="11">
-        <v>1726239755</v>
+        <v>1654509419</v>
       </c>
       <c r="AQ146" s="11">
-        <v>1654509419</v>
+        <v>1712340256</v>
       </c>
       <c r="AR146" s="11">
-        <v>1712340256</v>
+        <v>1905118669</v>
       </c>
       <c r="AS146" s="11">
-        <v>1905118669</v>
+        <v>1923372395</v>
       </c>
       <c r="AT146" s="11">
-        <v>1923372395</v>
+        <v>1908434686</v>
       </c>
       <c r="AU146" s="11">
-        <v>1908434686</v>
+        <v>1907287606</v>
       </c>
       <c r="AV146" s="11">
-        <v>1907287606</v>
+        <v>1923978745</v>
       </c>
       <c r="AW146" s="11">
-        <v>1923978745</v>
+        <v>1901105407</v>
       </c>
       <c r="AX146" s="11">
-        <v>1901105407</v>
+        <v>1889113305</v>
       </c>
       <c r="AY146" s="11">
-        <v>1889113305</v>
+        <v>1880588349</v>
       </c>
       <c r="AZ146" s="11">
-        <v>1880588349</v>
+        <v>1882336661</v>
       </c>
       <c r="BA146" s="11">
-        <v>1882336661</v>
+        <v>1899932282</v>
       </c>
       <c r="BB146" s="11">
-        <v>1899932282</v>
+        <v>1921831910</v>
       </c>
     </row>
-    <row r="147" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B147" s="12" t="s">
         <v>63</v>
       </c>
@@ -20662,104 +20662,104 @@
       <c r="V147" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W147" s="13" t="s">
-        <v>58</v>
+      <c r="W147" s="13">
+        <v>721462273</v>
       </c>
       <c r="X147" s="13">
-        <v>721462273</v>
+        <v>794571022</v>
       </c>
       <c r="Y147" s="13">
-        <v>794571022</v>
+        <v>1464010612</v>
       </c>
       <c r="Z147" s="13">
-        <v>1464010612</v>
+        <v>1342432045</v>
       </c>
       <c r="AA147" s="13">
-        <v>1342432045</v>
+        <v>1250499279</v>
       </c>
       <c r="AB147" s="13">
-        <v>1250499279</v>
+        <v>1644804665</v>
       </c>
       <c r="AC147" s="13">
-        <v>1644804665</v>
+        <v>1480057728</v>
       </c>
       <c r="AD147" s="13">
-        <v>1480057728</v>
+        <v>1503465969</v>
       </c>
       <c r="AE147" s="13">
-        <v>1503465969</v>
+        <v>1892174304</v>
       </c>
       <c r="AF147" s="13">
-        <v>1892174304</v>
+        <v>1477582479</v>
       </c>
       <c r="AG147" s="13">
-        <v>1477582479</v>
+        <v>2163159462</v>
       </c>
       <c r="AH147" s="13">
-        <v>2163159462</v>
+        <v>2010196730</v>
       </c>
       <c r="AI147" s="13">
-        <v>2010196730</v>
+        <v>2374161332</v>
       </c>
       <c r="AJ147" s="13">
-        <v>2374161332</v>
+        <v>2163077076</v>
       </c>
       <c r="AK147" s="13">
-        <v>2163077076</v>
+        <v>1577000563</v>
       </c>
       <c r="AL147" s="13">
-        <v>1577000563</v>
+        <v>3029582692</v>
       </c>
       <c r="AM147" s="13">
-        <v>3029582692</v>
+        <v>2291167058</v>
       </c>
       <c r="AN147" s="13">
-        <v>2291167058</v>
+        <v>3276378657</v>
       </c>
       <c r="AO147" s="13">
-        <v>3276378657</v>
+        <v>3230123853</v>
       </c>
       <c r="AP147" s="13">
-        <v>3230123853</v>
+        <v>3232711443</v>
       </c>
       <c r="AQ147" s="13">
-        <v>3232711443</v>
+        <v>2759008762</v>
       </c>
       <c r="AR147" s="13">
-        <v>2759008762</v>
+        <v>3107141148</v>
       </c>
       <c r="AS147" s="13">
-        <v>3107141148</v>
+        <v>3426999168</v>
       </c>
       <c r="AT147" s="13">
-        <v>3426999168</v>
+        <v>3224567630</v>
       </c>
       <c r="AU147" s="13">
-        <v>3224567630</v>
+        <v>3008770433</v>
       </c>
       <c r="AV147" s="13">
-        <v>3008770433</v>
+        <v>3065333108</v>
       </c>
       <c r="AW147" s="13">
-        <v>3065333108</v>
+        <v>3119469874</v>
       </c>
       <c r="AX147" s="13">
-        <v>3119469874</v>
+        <v>3159055936</v>
       </c>
       <c r="AY147" s="13">
-        <v>3159055936</v>
+        <v>3311830150</v>
       </c>
       <c r="AZ147" s="13">
-        <v>3311830150</v>
+        <v>3448940504</v>
       </c>
       <c r="BA147" s="13">
-        <v>3448940504</v>
+        <v>3417974559</v>
       </c>
       <c r="BB147" s="13">
-        <v>3417974559</v>
+        <v>3589923714</v>
       </c>
     </row>
-    <row r="148" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
         <v>64</v>
       </c>
@@ -20918,7 +20918,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B149" s="12" t="s">
         <v>65</v>
       </c>
@@ -20980,104 +20980,104 @@
       <c r="V149" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W149" s="13" t="s">
-        <v>58</v>
+      <c r="W149" s="13">
+        <v>596130258</v>
       </c>
       <c r="X149" s="13">
-        <v>596130258</v>
+        <v>767253797</v>
       </c>
       <c r="Y149" s="13">
-        <v>767253797</v>
+        <v>781343299</v>
       </c>
       <c r="Z149" s="13">
-        <v>781343299</v>
+        <v>823126617</v>
       </c>
       <c r="AA149" s="13">
-        <v>823126617</v>
+        <v>915483901</v>
       </c>
       <c r="AB149" s="13">
-        <v>915483901</v>
+        <v>1071241906</v>
       </c>
       <c r="AC149" s="13">
-        <v>1071241906</v>
+        <v>1117236608</v>
       </c>
       <c r="AD149" s="13">
-        <v>1117236608</v>
+        <v>1166531809</v>
       </c>
       <c r="AE149" s="13">
-        <v>1166531809</v>
+        <v>1082689144</v>
       </c>
       <c r="AF149" s="13">
-        <v>1082689144</v>
+        <v>1135061361</v>
       </c>
       <c r="AG149" s="13">
-        <v>1135061361</v>
+        <v>1174131128</v>
       </c>
       <c r="AH149" s="13">
-        <v>1174131128</v>
+        <v>1252566815</v>
       </c>
       <c r="AI149" s="13">
-        <v>1252566815</v>
+        <v>1185407993</v>
       </c>
       <c r="AJ149" s="13">
-        <v>1185407993</v>
+        <v>1500782210</v>
       </c>
       <c r="AK149" s="13">
-        <v>1500782210</v>
+        <v>1345676350</v>
       </c>
       <c r="AL149" s="13">
-        <v>1345676350</v>
+        <v>1277198609</v>
       </c>
       <c r="AM149" s="13">
-        <v>1277198609</v>
+        <v>1393831057</v>
       </c>
       <c r="AN149" s="13">
-        <v>1393831057</v>
+        <v>1348737048</v>
       </c>
       <c r="AO149" s="13">
-        <v>1348737048</v>
+        <v>1409145342</v>
       </c>
       <c r="AP149" s="13">
-        <v>1409145342</v>
+        <v>1527590038</v>
       </c>
       <c r="AQ149" s="13">
-        <v>1527590038</v>
+        <v>1502600958</v>
       </c>
       <c r="AR149" s="13">
-        <v>1502600958</v>
+        <v>1626826799</v>
       </c>
       <c r="AS149" s="13">
-        <v>1626826799</v>
+        <v>1727422921</v>
       </c>
       <c r="AT149" s="13">
-        <v>1727422921</v>
+        <v>1656043820</v>
       </c>
       <c r="AU149" s="13">
-        <v>1656043820</v>
+        <v>1734791704</v>
       </c>
       <c r="AV149" s="13">
-        <v>1734791704</v>
+        <v>1628374408</v>
       </c>
       <c r="AW149" s="13">
-        <v>1628374408</v>
+        <v>1673124236</v>
       </c>
       <c r="AX149" s="13">
-        <v>1673124236</v>
+        <v>1655601661</v>
       </c>
       <c r="AY149" s="13">
-        <v>1655601661</v>
+        <v>1700421746</v>
       </c>
       <c r="AZ149" s="13">
-        <v>1700421746</v>
+        <v>1728603040</v>
       </c>
       <c r="BA149" s="13">
-        <v>1728603040</v>
+        <v>2035246114</v>
       </c>
       <c r="BB149" s="13">
-        <v>2035246114</v>
+        <v>1923934660</v>
       </c>
     </row>
-    <row r="150" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
         <v>66</v>
       </c>
@@ -21175,12 +21175,12 @@
       <c r="AH150" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI150" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ150" s="11">
+      <c r="AI150" s="11">
         <v>1080000000</v>
       </c>
+      <c r="AJ150" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AK150" s="11" t="s">
         <v>58</v>
       </c>
@@ -21236,7 +21236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B151" s="12" t="s">
         <v>67</v>
       </c>
@@ -21298,48 +21298,48 @@
       <c r="V151" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W151" s="13" t="s">
-        <v>58</v>
+      <c r="W151" s="13">
+        <v>1871000000</v>
       </c>
       <c r="X151" s="13">
-        <v>1871000000</v>
+        <v>430304348</v>
       </c>
       <c r="Y151" s="13">
-        <v>430304348</v>
+        <v>388274510</v>
       </c>
       <c r="Z151" s="13">
-        <v>388274510</v>
+        <v>419529412</v>
       </c>
       <c r="AA151" s="13">
-        <v>419529412</v>
-      </c>
-      <c r="AB151" s="13">
         <v>382090909</v>
       </c>
+      <c r="AB151" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AC151" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD151" s="13" t="s">
-        <v>58</v>
+      <c r="AD151" s="13">
+        <v>412083333</v>
       </c>
       <c r="AE151" s="13">
-        <v>412083333</v>
-      </c>
-      <c r="AF151" s="13">
         <v>406066667</v>
       </c>
+      <c r="AF151" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG151" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AH151" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI151" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ151" s="13">
+      <c r="AI151" s="13">
         <v>2806000000</v>
       </c>
+      <c r="AJ151" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK151" s="13" t="s">
         <v>58</v>
       </c>
@@ -21395,7 +21395,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B152" s="10" t="s">
         <v>68</v>
       </c>
@@ -21457,104 +21457,104 @@
       <c r="V152" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W152" s="11" t="s">
-        <v>58</v>
+      <c r="W152" s="11">
+        <v>1615381579</v>
       </c>
       <c r="X152" s="11">
-        <v>1615381579</v>
+        <v>1754236705</v>
       </c>
       <c r="Y152" s="11">
-        <v>1754236705</v>
+        <v>1508500000</v>
       </c>
       <c r="Z152" s="11">
-        <v>1508500000</v>
+        <v>1731509565</v>
       </c>
       <c r="AA152" s="11">
-        <v>1731509565</v>
+        <v>1549545455</v>
       </c>
       <c r="AB152" s="11">
-        <v>1549545455</v>
+        <v>1352000000</v>
       </c>
       <c r="AC152" s="11">
-        <v>1352000000</v>
+        <v>1640833333</v>
       </c>
       <c r="AD152" s="11">
-        <v>1640833333</v>
+        <v>1540246269</v>
       </c>
       <c r="AE152" s="11">
-        <v>1540246269</v>
+        <v>1913811309</v>
       </c>
       <c r="AF152" s="11">
-        <v>1913811309</v>
+        <v>2042666214</v>
       </c>
       <c r="AG152" s="11">
-        <v>2042666214</v>
+        <v>1870427729</v>
       </c>
       <c r="AH152" s="11">
-        <v>1870427729</v>
+        <v>1630464789</v>
       </c>
       <c r="AI152" s="11">
-        <v>1630464789</v>
+        <v>2027045396</v>
       </c>
       <c r="AJ152" s="11">
-        <v>2027045396</v>
+        <v>1622013514</v>
       </c>
       <c r="AK152" s="11">
-        <v>1622013514</v>
+        <v>2076616783</v>
       </c>
       <c r="AL152" s="11">
-        <v>2076616783</v>
+        <v>2428328671</v>
       </c>
       <c r="AM152" s="11">
-        <v>2428328671</v>
+        <v>5624294286</v>
       </c>
       <c r="AN152" s="11">
-        <v>5624294286</v>
+        <v>5848651420</v>
       </c>
       <c r="AO152" s="11">
-        <v>5848651420</v>
+        <v>5763202850</v>
       </c>
       <c r="AP152" s="11">
-        <v>5763202850</v>
+        <v>5668973005</v>
       </c>
       <c r="AQ152" s="11">
-        <v>5668973005</v>
+        <v>5675010157</v>
       </c>
       <c r="AR152" s="11">
-        <v>5675010157</v>
+        <v>5483554656</v>
       </c>
       <c r="AS152" s="11">
-        <v>5483554656</v>
+        <v>5795642684</v>
       </c>
       <c r="AT152" s="11">
-        <v>5795642684</v>
+        <v>5523343824</v>
       </c>
       <c r="AU152" s="11">
-        <v>5523343824</v>
+        <v>5656125272</v>
       </c>
       <c r="AV152" s="11">
-        <v>5656125272</v>
+        <v>6928285714</v>
       </c>
       <c r="AW152" s="11">
-        <v>6928285714</v>
+        <v>7383698023</v>
       </c>
       <c r="AX152" s="11">
-        <v>7383698023</v>
+        <v>6309986041</v>
       </c>
       <c r="AY152" s="11">
-        <v>6309986041</v>
+        <v>6676548261</v>
       </c>
       <c r="AZ152" s="11">
-        <v>6676548261</v>
+        <v>5850987990</v>
       </c>
       <c r="BA152" s="11">
-        <v>5850987990</v>
+        <v>6326653221</v>
       </c>
       <c r="BB152" s="11">
-        <v>6326653221</v>
+        <v>7422131559</v>
       </c>
     </row>
-    <row r="153" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B153" s="12" t="s">
         <v>69</v>
       </c>
@@ -21616,18 +21616,18 @@
       <c r="V153" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W153" s="13" t="s">
-        <v>58</v>
+      <c r="W153" s="13">
+        <v>440569620</v>
       </c>
       <c r="X153" s="13">
-        <v>440569620</v>
+        <v>522714286</v>
       </c>
       <c r="Y153" s="13">
-        <v>522714286</v>
-      </c>
-      <c r="Z153" s="13">
         <v>425666667</v>
       </c>
+      <c r="Z153" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AA153" s="13" t="s">
         <v>58</v>
       </c>
@@ -21637,21 +21637,21 @@
       <c r="AC153" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD153" s="13" t="s">
-        <v>58</v>
+      <c r="AD153" s="13">
+        <v>425695652</v>
       </c>
       <c r="AE153" s="13">
-        <v>425695652</v>
-      </c>
-      <c r="AF153" s="13">
         <v>660833333</v>
       </c>
-      <c r="AG153" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH153" s="13">
+      <c r="AF153" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG153" s="13">
         <v>2833000000</v>
       </c>
+      <c r="AH153" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI153" s="13" t="s">
         <v>58</v>
       </c>
@@ -21664,12 +21664,12 @@
       <c r="AL153" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM153" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN153" s="13">
+      <c r="AM153" s="13">
         <v>1879000000</v>
       </c>
+      <c r="AN153" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO153" s="13" t="s">
         <v>58</v>
       </c>
@@ -21713,7 +21713,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
         <v>70</v>
       </c>
@@ -21775,21 +21775,21 @@
       <c r="V154" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W154" s="11" t="s">
-        <v>58</v>
+      <c r="W154" s="11">
+        <v>665000000</v>
       </c>
       <c r="X154" s="11">
-        <v>665000000</v>
+        <v>454471419</v>
       </c>
       <c r="Y154" s="11">
-        <v>454471419</v>
+        <v>1040180258</v>
       </c>
       <c r="Z154" s="11">
-        <v>1040180258</v>
-      </c>
-      <c r="AA154" s="11">
         <v>1076845914</v>
       </c>
+      <c r="AA154" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AB154" s="11" t="s">
         <v>58</v>
       </c>
@@ -21799,12 +21799,12 @@
       <c r="AD154" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE154" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF154" s="11">
+      <c r="AE154" s="11">
         <v>1080080427</v>
       </c>
+      <c r="AF154" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AG154" s="11" t="s">
         <v>58</v>
       </c>
@@ -21872,7 +21872,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="155" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B155" s="12" t="s">
         <v>71</v>
       </c>
@@ -21934,48 +21934,48 @@
       <c r="V155" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W155" s="13" t="s">
-        <v>58</v>
+      <c r="W155" s="13">
+        <v>1005000000</v>
       </c>
       <c r="X155" s="13">
+        <v>1004000000</v>
+      </c>
+      <c r="Y155" s="13">
+        <v>1004857143</v>
+      </c>
+      <c r="Z155" s="13">
+        <v>1004750000</v>
+      </c>
+      <c r="AA155" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB155" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC155" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD155" s="13">
         <v>1005000000</v>
       </c>
-      <c r="Y155" s="13">
-        <v>1004000000</v>
-      </c>
-      <c r="Z155" s="13">
-        <v>1004857143</v>
-      </c>
-      <c r="AA155" s="13">
-        <v>1004750000</v>
-      </c>
-      <c r="AB155" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC155" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD155" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="AE155" s="13">
-        <v>1005000000</v>
-      </c>
-      <c r="AF155" s="13">
         <v>5936500000</v>
       </c>
+      <c r="AF155" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG155" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AH155" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI155" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ155" s="13">
+      <c r="AI155" s="13">
         <v>7120932039</v>
       </c>
+      <c r="AJ155" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK155" s="13" t="s">
         <v>58</v>
       </c>
@@ -21994,12 +21994,12 @@
       <c r="AP155" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ155" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR155" s="13">
+      <c r="AQ155" s="13">
         <v>7089365854</v>
       </c>
+      <c r="AR155" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS155" s="13" t="s">
         <v>58</v>
       </c>
@@ -22031,7 +22031,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="156" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
         <v>72</v>
       </c>
@@ -22111,86 +22111,86 @@
       <c r="AB156" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC156" s="11" t="s">
-        <v>58</v>
+      <c r="AC156" s="11">
+        <v>1491666667</v>
       </c>
       <c r="AD156" s="11">
-        <v>1491666667</v>
+        <v>2049000000</v>
       </c>
       <c r="AE156" s="11">
-        <v>2049000000</v>
-      </c>
-      <c r="AF156" s="11">
         <v>2559166667</v>
       </c>
-      <c r="AG156" s="11" t="s">
-        <v>58</v>
+      <c r="AF156" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG156" s="11">
+        <v>2560000000</v>
       </c>
       <c r="AH156" s="11">
-        <v>2560000000</v>
+        <v>2532000000</v>
       </c>
       <c r="AI156" s="11">
-        <v>2532000000</v>
+        <v>2563000000</v>
       </c>
       <c r="AJ156" s="11">
         <v>2563000000</v>
       </c>
       <c r="AK156" s="11">
-        <v>2563000000</v>
+        <v>2561173965</v>
       </c>
       <c r="AL156" s="11">
-        <v>2561173965</v>
+        <v>2591105856</v>
       </c>
       <c r="AM156" s="11">
-        <v>2591105856</v>
+        <v>2569718566</v>
       </c>
       <c r="AN156" s="11">
-        <v>2569718566</v>
+        <v>2567892548</v>
       </c>
       <c r="AO156" s="11">
-        <v>2567892548</v>
+        <v>3038488846</v>
       </c>
       <c r="AP156" s="11">
-        <v>3038488846</v>
+        <v>3179597390</v>
       </c>
       <c r="AQ156" s="11">
-        <v>3179597390</v>
+        <v>3287846232</v>
       </c>
       <c r="AR156" s="11">
-        <v>3287846232</v>
+        <v>3257660000</v>
       </c>
       <c r="AS156" s="11">
-        <v>3257660000</v>
+        <v>3073967480</v>
       </c>
       <c r="AT156" s="11">
-        <v>3073967480</v>
+        <v>2892689055</v>
       </c>
       <c r="AU156" s="11">
-        <v>2892689055</v>
+        <v>2833676963</v>
       </c>
       <c r="AV156" s="11">
-        <v>2833676963</v>
+        <v>2839026412</v>
       </c>
       <c r="AW156" s="11">
-        <v>2839026412</v>
+        <v>2783547675</v>
       </c>
       <c r="AX156" s="11">
-        <v>2783547675</v>
+        <v>3039422211</v>
       </c>
       <c r="AY156" s="11">
-        <v>3039422211</v>
+        <v>3111983434</v>
       </c>
       <c r="AZ156" s="11">
-        <v>3111983434</v>
+        <v>3188516977</v>
       </c>
       <c r="BA156" s="11">
-        <v>3188516977</v>
+        <v>3134380163</v>
       </c>
       <c r="BB156" s="11">
-        <v>3134380163</v>
+        <v>3556258119</v>
       </c>
     </row>
-    <row r="157" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
         <v>101</v>
       </c>
@@ -22247,7 +22247,7 @@
       <c r="BA157" s="9"/>
       <c r="BB157" s="9"/>
     </row>
-    <row r="158" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
         <v>65</v>
       </c>
@@ -22406,7 +22406,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="159" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B159" s="12" t="s">
         <v>66</v>
       </c>
@@ -22565,7 +22565,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="160" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
         <v>67</v>
       </c>
@@ -22675,12 +22675,12 @@
       <c r="AL160" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM160" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN160" s="11">
+      <c r="AM160" s="11">
         <v>467000000</v>
       </c>
+      <c r="AN160" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO160" s="11" t="s">
         <v>58</v>
       </c>
@@ -22724,7 +22724,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="161" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B161" s="12" t="s">
         <v>68</v>
       </c>
@@ -22883,7 +22883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="162" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
         <v>76</v>
       </c>
@@ -23005,12 +23005,12 @@
       <c r="AP162" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ162" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR162" s="11">
+      <c r="AQ162" s="11">
         <v>1442780702</v>
       </c>
+      <c r="AR162" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS162" s="11" t="s">
         <v>58</v>
       </c>
@@ -23023,26 +23023,26 @@
       <c r="AV162" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW162" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX162" s="11">
+      <c r="AW162" s="11">
         <v>2667400000</v>
       </c>
+      <c r="AX162" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AY162" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ162" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA162" s="11">
+      <c r="AZ162" s="11">
         <v>2208166667</v>
       </c>
+      <c r="BA162" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="BB162" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="163" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B163" s="12" t="s">
         <v>77</v>
       </c>
@@ -23164,38 +23164,38 @@
       <c r="AP163" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ163" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR163" s="13">
+      <c r="AQ163" s="13">
         <v>1392053853</v>
       </c>
-      <c r="AS163" s="13" t="s">
-        <v>58</v>
+      <c r="AR163" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS163" s="13">
+        <v>1750531250</v>
       </c>
       <c r="AT163" s="13">
-        <v>1750531250</v>
-      </c>
-      <c r="AU163" s="13">
         <v>1427128472</v>
       </c>
+      <c r="AU163" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV163" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW163" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX163" s="13">
+      <c r="AW163" s="13">
         <v>1800614583</v>
       </c>
+      <c r="AX163" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AY163" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ163" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA163" s="13">
+      <c r="AZ163" s="13">
         <v>1086211570</v>
+      </c>
+      <c r="BA163" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB163" s="13" t="s">
         <v>58</v>
